--- a/datasets/selfservice/AC/lab_detail.xlsx
+++ b/datasets/selfservice/AC/lab_detail.xlsx
@@ -201,13 +201,19 @@
     <t>substance</t>
   </si>
   <si>
-    <t>4-ANPP</t>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>procaine</t>
+  </si>
+  <si>
+    <t>melatonin</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
   </si>
   <si>
     <t>fentanyl</t>
-  </si>
-  <si>
-    <t>melatonin</t>
   </si>
   <si>
     <t>heroin</t>
@@ -216,19 +222,13 @@
     <t>tramadol</t>
   </si>
   <si>
+    <t>xylazine</t>
+  </si>
+  <si>
     <t>lidocaine</t>
   </si>
   <si>
-    <t>procaine</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>xylazine</t>
+    <t>4-ANPP</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
@@ -246,16 +246,16 @@
     <t>norcocaine</t>
   </si>
   <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
     <t>tropacocaine</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
+    <t>caffeine</t>
   </si>
   <si>
     <t>dextromethorphan</t>
-  </si>
-  <si>
-    <t>caffeine</t>
   </si>
   <si>
     <t>bromazolam</t>
@@ -276,19 +276,19 @@
     <t>ketamine</t>
   </si>
   <si>
-    <t>salicylic acid</t>
+    <t>trazodone</t>
   </si>
   <si>
     <t>phenacetin</t>
   </si>
   <si>
-    <t>trazodone</t>
+    <t>despropionyl p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>salicylic acid</t>
   </si>
   <si>
     <t>aspirin</t>
-  </si>
-  <si>
-    <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
     <t>4-Anilino-1-Boc-piperidine</t>
@@ -309,13 +309,19 @@
     <t>cas</t>
   </si>
   <si>
-    <t>21409-26-7</t>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>59-46-1</t>
+  </si>
+  <si>
+    <t>73-31-4</t>
+  </si>
+  <si>
+    <t>90736-23-5</t>
   </si>
   <si>
     <t>437-38-7</t>
-  </si>
-  <si>
-    <t>73-31-4</t>
   </si>
   <si>
     <t>561-27-3</t>
@@ -324,19 +330,13 @@
     <t>123154-38-1</t>
   </si>
   <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
     <t>137-58-6</t>
   </si>
   <si>
-    <t>59-46-1</t>
-  </si>
-  <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
+    <t>21409-26-7</t>
   </si>
   <si>
     <t/>
@@ -351,10 +351,10 @@
     <t>18717-72-1</t>
   </si>
   <si>
-    <t>537-26-8</t>
+    <t>43021-26-7</t>
   </si>
   <si>
-    <t>43021-26-7</t>
+    <t>537-26-8</t>
   </si>
   <si>
     <t>58-08-2</t>
@@ -372,16 +372,16 @@
     <t>6740-88-1</t>
   </si>
   <si>
+    <t>62-44-2</t>
+  </si>
+  <si>
+    <t>122861-41-0</t>
+  </si>
+  <si>
     <t>69-72-7</t>
   </si>
   <si>
-    <t>62-44-2</t>
-  </si>
-  <si>
     <t>50-78-2</t>
-  </si>
-  <si>
-    <t>122861-41-0</t>
   </si>
   <si>
     <t>537-46-2</t>
@@ -396,13 +396,19 @@
     <t>unii</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>4Z8Y51M438</t>
+  </si>
+  <si>
+    <t>JL5DK93RCL</t>
+  </si>
+  <si>
+    <t>I45R05QM0Z</t>
   </si>
   <si>
     <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>JL5DK93RCL</t>
   </si>
   <si>
     <t>70D95007SX</t>
@@ -411,19 +417,13 @@
     <t>39J1LGJ30J</t>
   </si>
   <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
     <t>98PI200987</t>
   </si>
   <si>
-    <t>4Z8Y51M438</t>
-  </si>
-  <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
+    <t>Q88EHD0U8G</t>
   </si>
   <si>
     <t>8GTS82S83M</t>
@@ -435,10 +435,10 @@
     <t>3SL7BR2M1E</t>
   </si>
   <si>
-    <t>1I92X32F6H</t>
+    <t>58C337KP3E</t>
   </si>
   <si>
-    <t>58C337KP3E</t>
+    <t>1I92X32F6H</t>
   </si>
   <si>
     <t>3G6A5W338E</t>
@@ -456,16 +456,16 @@
     <t>690G0D6V8H</t>
   </si>
   <si>
+    <t>ER0CTH01H9</t>
+  </si>
+  <si>
+    <t>R8ZH1EQ95Y</t>
+  </si>
+  <si>
     <t>O414PZ4LPZ</t>
   </si>
   <si>
-    <t>ER0CTH01H9</t>
-  </si>
-  <si>
     <t>R16CO5Y76E</t>
-  </si>
-  <si>
-    <t>R8ZH1EQ95Y</t>
   </si>
   <si>
     <t>44RAL3456C</t>
@@ -814,7 +814,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D2" t="s">
         <v>98</v>
@@ -823,7 +823,7 @@
         <v>127</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G2" t="s">
         <v>157</v>
@@ -835,10 +835,10 @@
         <v>767</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1">
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="1">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>63</v>
       </c>
       <c r="C3" s="1">
-        <v>3345</v>
+        <v>4914</v>
       </c>
       <c r="D3" t="s">
         <v>99</v>
@@ -967,7 +967,7 @@
         <v>128</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G3" t="s">
         <v>157</v>
@@ -979,10 +979,10 @@
         <v>767</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="AP3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3" s="1">
         <v>0</v>
@@ -1246,7 +1246,7 @@
         <v>65</v>
       </c>
       <c r="C5" s="1">
-        <v>5462328</v>
+        <v>62300</v>
       </c>
       <c r="D5" t="s">
         <v>101</v>
@@ -1390,7 +1390,7 @@
         <v>66</v>
       </c>
       <c r="C6" s="1">
-        <v>33741</v>
+        <v>3345</v>
       </c>
       <c r="D6" t="s">
         <v>102</v>
@@ -1399,7 +1399,7 @@
         <v>131</v>
       </c>
       <c r="F6" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G6" t="s">
         <v>157</v>
@@ -1411,10 +1411,10 @@
         <v>767</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1427,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="1">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>67</v>
       </c>
       <c r="C7" s="1">
-        <v>3676</v>
+        <v>5462328</v>
       </c>
       <c r="D7" t="s">
         <v>103</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="1">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="AP7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7" s="1">
         <v>0</v>
@@ -1678,7 +1678,7 @@
         <v>68</v>
       </c>
       <c r="C8" s="1">
-        <v>4914</v>
+        <v>33741</v>
       </c>
       <c r="D8" t="s">
         <v>104</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="1">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="AP8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="1">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>69</v>
       </c>
       <c r="C9" s="1">
-        <v>62300</v>
+        <v>5707</v>
       </c>
       <c r="D9" t="s">
         <v>105</v>
@@ -1831,7 +1831,7 @@
         <v>134</v>
       </c>
       <c r="F9" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
         <v>157</v>
@@ -1843,10 +1843,10 @@
         <v>767</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1865,10 +1865,10 @@
         <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="1">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>70</v>
       </c>
       <c r="C10" s="1">
-        <v>446220</v>
+        <v>3676</v>
       </c>
       <c r="D10" t="s">
         <v>106</v>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="AP10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ10" s="1">
         <v>0</v>
@@ -2110,7 +2110,7 @@
         <v>71</v>
       </c>
       <c r="C11" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D11" t="s">
         <v>107</v>
@@ -2153,10 +2153,10 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11" s="1">
         <v>0</v>
@@ -2395,16 +2395,16 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1">
-        <v>88890</v>
+        <v>3100</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
         <v>108</v>
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ13" s="1">
         <v>0</v>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>0</v>
@@ -2539,16 +2539,16 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1">
         <v>5707</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F14" t="s">
         <v>155</v>
@@ -2683,16 +2683,16 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="1">
-        <v>3100</v>
+        <v>88890</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F15" t="s">
         <v>108</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="AP15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="1">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -2827,19 +2827,19 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1">
-        <v>3034034</v>
+        <v>3345</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
         <v>157</v>
@@ -2851,10 +2851,10 @@
         <v>773</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -2945,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ16" s="1">
         <v>0</v>
@@ -2971,19 +2971,19 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C17" s="1">
-        <v>3345</v>
+        <v>3034034</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G17" t="s">
         <v>157</v>
@@ -2995,10 +2995,10 @@
         <v>773</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="1">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="AP17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ17" s="1">
         <v>0</v>
@@ -3115,16 +3115,16 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1">
         <v>3345</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F18" t="s">
         <v>108</v>
@@ -3259,16 +3259,16 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1">
         <v>88890</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F19" t="s">
         <v>108</v>
@@ -3403,19 +3403,19 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" t="s">
         <v>108</v>
-      </c>
-      <c r="E20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" t="s">
-        <v>155</v>
       </c>
       <c r="G20" t="s">
         <v>157</v>
@@ -3427,10 +3427,10 @@
         <v>780</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3443,10 +3443,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>0</v>
@@ -3547,19 +3547,19 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G21" t="s">
         <v>157</v>
@@ -3571,10 +3571,10 @@
         <v>780</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3691,16 +3691,16 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C22" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F22" t="s">
         <v>108</v>
@@ -3731,10 +3731,10 @@
         <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="1">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="1">
         <v>0</v>
@@ -4123,19 +4123,19 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1">
-        <v>637578</v>
+        <v>446220</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F25" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G25" t="s">
         <v>157</v>
@@ -4147,10 +4147,10 @@
         <v>812</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -4184,10 +4184,10 @@
         <v>0</v>
       </c>
       <c r="W25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="1">
         <v>0</v>
@@ -4238,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25" s="1">
         <v>0</v>
@@ -4267,19 +4267,19 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C26" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G26" t="s">
         <v>157</v>
@@ -4291,10 +4291,10 @@
         <v>812</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4328,10 +4328,10 @@
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="1">
         <v>0</v>
@@ -4414,7 +4414,7 @@
         <v>78</v>
       </c>
       <c r="C27" s="1">
-        <v>119478</v>
+        <v>637578</v>
       </c>
       <c r="D27" t="s">
         <v>113</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="AO27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP27" s="1">
         <v>0</v>
@@ -4555,16 +4555,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1">
         <v>33741</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -4699,16 +4699,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C29" s="1">
-        <v>3676</v>
+        <v>446220</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F29" t="s">
         <v>155</v>
@@ -4763,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="1">
         <v>0</v>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="1">
         <v>0</v>
@@ -4843,16 +4843,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C30" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E30" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F30" t="s">
         <v>108</v>
@@ -4883,10 +4883,10 @@
         <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="1">
         <v>0</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL30" s="1">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="AS30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="1">
         <v>0</v>
@@ -4987,16 +4987,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C31" s="1">
-        <v>3100</v>
+        <v>2519</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F31" t="s">
         <v>155</v>
@@ -5131,19 +5131,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C32" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F32" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G32" t="s">
         <v>157</v>
@@ -5155,10 +5155,10 @@
         <v>1236</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5171,19 +5171,19 @@
         <v>0</v>
       </c>
       <c r="P32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" s="1">
         <v>0</v>
       </c>
       <c r="S32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" s="1">
         <v>0</v>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="1">
         <v>0</v>
@@ -5275,16 +5275,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="1">
-        <v>5707</v>
+        <v>3676</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F33" t="s">
         <v>155</v>
@@ -5324,10 +5324,10 @@
         <v>0</v>
       </c>
       <c r="S33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" s="1">
         <v>0</v>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="AP33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ33" s="1">
         <v>0</v>
@@ -5419,19 +5419,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F34" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G34" t="s">
         <v>157</v>
@@ -5443,10 +5443,10 @@
         <v>1236</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5483,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="1">
         <v>0</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT34" s="1">
         <v>0</v>
@@ -5563,14 +5563,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3100</v>
+      </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="F35" t="s">
         <v>155</v>
@@ -5679,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="AP35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ35" s="1">
         <v>0</v>
@@ -5707,14 +5709,12 @@
       <c r="B36" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="1">
-        <v>2519</v>
-      </c>
+      <c r="C36" s="1"/>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="F36" t="s">
         <v>155</v>
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="AP36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ36" s="1">
         <v>0</v>
@@ -5849,19 +5849,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C37" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G37" t="s">
         <v>157</v>
@@ -5873,10 +5873,10 @@
         <v>1239</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -5898,10 +5898,10 @@
         <v>0</v>
       </c>
       <c r="S37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" s="1">
         <v>0</v>
@@ -5976,7 +5976,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="1">
         <v>0</v>
@@ -5993,16 +5993,16 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C38" s="1">
-        <v>165365057</v>
+        <v>3676</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="F38" t="s">
         <v>155</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="AP38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ38" s="1">
         <v>0</v>
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="1">
         <v>0</v>
@@ -6137,7 +6137,7 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" s="1">
         <v>2519</v>
@@ -6281,16 +6281,16 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C40" s="1">
-        <v>3676</v>
+        <v>165365057</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="F40" t="s">
         <v>155</v>
@@ -6399,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="1">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="AS40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT40" s="1">
         <v>0</v>
@@ -6425,16 +6425,16 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C41" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D41" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F41" t="s">
         <v>108</v>
@@ -6465,10 +6465,10 @@
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="1">
         <v>0</v>
@@ -6528,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="1">
         <v>0</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="AS41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT41" s="1">
         <v>0</v>
@@ -6569,19 +6569,19 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C42" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E42" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F42" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G42" t="s">
         <v>157</v>
@@ -6593,10 +6593,10 @@
         <v>1239</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -6609,19 +6609,19 @@
         <v>0</v>
       </c>
       <c r="P42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="1">
         <v>0</v>
       </c>
       <c r="S42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" s="1">
         <v>0</v>
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -6713,16 +6713,16 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C43" s="1">
-        <v>2519</v>
+        <v>896</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E43" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F43" t="s">
         <v>155</v>
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="AP43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="1">
         <v>0</v>
@@ -6857,16 +6857,16 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C44" s="1">
-        <v>3676</v>
+        <v>12562546</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="E44" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F44" t="s">
         <v>155</v>
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="AH44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI44" s="1">
         <v>0</v>
@@ -6975,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="1">
         <v>0</v>
@@ -7001,19 +7001,19 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C45" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F45" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G45" t="s">
         <v>157</v>
@@ -7025,10 +7025,10 @@
         <v>1259</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -7065,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="1">
         <v>0</v>
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="AS45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT45" s="1">
         <v>0</v>
@@ -7145,19 +7145,19 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C46" s="1">
-        <v>3345</v>
+        <v>33741</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E46" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F46" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G46" t="s">
         <v>157</v>
@@ -7169,10 +7169,10 @@
         <v>1259</v>
       </c>
       <c r="J46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7185,10 +7185,10 @@
         <v>0</v>
       </c>
       <c r="P46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" s="1">
         <v>0</v>
@@ -7224,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46" s="1">
         <v>0</v>
@@ -7289,16 +7289,16 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C47" s="1">
-        <v>165365057</v>
+        <v>62300</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="F47" t="s">
         <v>155</v>
@@ -7392,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="AK47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL47" s="1">
         <v>0</v>
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="1">
         <v>0</v>
@@ -7433,16 +7433,16 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C48" s="1">
-        <v>896</v>
+        <v>165365057</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E48" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="F48" t="s">
         <v>155</v>
@@ -7560,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="AS48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT48" s="1">
         <v>0</v>
@@ -7577,16 +7577,16 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C49" s="1">
-        <v>33741</v>
+        <v>446220</v>
       </c>
       <c r="D49" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E49" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F49" t="s">
         <v>155</v>
@@ -7641,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="X49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y49" s="1">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD49" s="1">
         <v>0</v>
@@ -7680,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="AK49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49" s="1">
         <v>0</v>
@@ -7721,16 +7721,16 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="1">
         <v>5707</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F50" t="s">
         <v>155</v>
@@ -7865,16 +7865,16 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C51" s="1">
-        <v>12562546</v>
+        <v>3676</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E51" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F51" t="s">
         <v>155</v>
@@ -7959,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="AH51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI51" s="1">
         <v>0</v>
@@ -7983,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="AP51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ51" s="1">
         <v>0</v>
@@ -8009,16 +8009,16 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C52" s="1">
         <v>4914</v>
       </c>
       <c r="D52" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E52" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F52" t="s">
         <v>108</v>
@@ -8153,16 +8153,16 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C53" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D53" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E53" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F53" t="s">
         <v>108</v>
@@ -8193,10 +8193,10 @@
         <v>0</v>
       </c>
       <c r="P53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="1">
         <v>0</v>
@@ -8256,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL53" s="1">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>0</v>
       </c>
       <c r="AS53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT53" s="1">
         <v>0</v>
@@ -8297,16 +8297,16 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C54" s="1">
-        <v>62300</v>
+        <v>2519</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E54" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F54" t="s">
         <v>155</v>
@@ -8400,7 +8400,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54" s="1">
         <v>0</v>
@@ -8415,7 +8415,7 @@
         <v>0</v>
       </c>
       <c r="AP54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ54" s="1">
         <v>0</v>
@@ -8441,19 +8441,19 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C55" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G55" t="s">
         <v>157</v>
@@ -8465,10 +8465,10 @@
         <v>1282</v>
       </c>
       <c r="J55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="P55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" s="1">
         <v>0</v>
@@ -8505,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y55" s="1">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55" s="1">
         <v>0</v>
@@ -8585,19 +8585,19 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C56" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E56" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F56" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G56" t="s">
         <v>157</v>
@@ -8609,10 +8609,10 @@
         <v>1282</v>
       </c>
       <c r="J56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -8625,10 +8625,10 @@
         <v>0</v>
       </c>
       <c r="P56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="1">
         <v>0</v>
@@ -8649,7 +8649,7 @@
         <v>0</v>
       </c>
       <c r="X56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="1">
         <v>0</v>
@@ -8688,7 +8688,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL56" s="1">
         <v>0</v>
@@ -8729,16 +8729,16 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" s="1">
         <v>5707</v>
       </c>
       <c r="D57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E57" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F57" t="s">
         <v>108</v>
@@ -8873,19 +8873,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C58" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F58" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G58" t="s">
         <v>157</v>
@@ -8897,10 +8897,10 @@
         <v>1307</v>
       </c>
       <c r="J58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
@@ -8934,10 +8934,10 @@
         <v>0</v>
       </c>
       <c r="W58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="1">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C59" s="1">
-        <v>637578</v>
+        <v>446220</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E59" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F59" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G59" t="s">
         <v>157</v>
@@ -9041,10 +9041,10 @@
         <v>1307</v>
       </c>
       <c r="J59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1">
@@ -9078,10 +9078,10 @@
         <v>0</v>
       </c>
       <c r="W59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y59" s="1">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="AO59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP59" s="1">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>78</v>
       </c>
       <c r="C60" s="1">
-        <v>119478</v>
+        <v>637578</v>
       </c>
       <c r="D60" t="s">
         <v>113</v>
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="AO60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP60" s="1">
         <v>0</v>
@@ -9305,19 +9305,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C61" s="1">
-        <v>2519</v>
+        <v>5707</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E61" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F61" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G61" t="s">
         <v>157</v>
@@ -9329,10 +9329,10 @@
         <v>1329</v>
       </c>
       <c r="J61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1">
@@ -9351,10 +9351,10 @@
         <v>0</v>
       </c>
       <c r="R61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61" s="1">
         <v>0</v>
@@ -9423,7 +9423,7 @@
         <v>0</v>
       </c>
       <c r="AP61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ61" s="1">
         <v>0</v>
@@ -9449,19 +9449,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C62" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D62" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F62" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G62" t="s">
         <v>157</v>
@@ -9473,10 +9473,10 @@
         <v>1329</v>
       </c>
       <c r="J62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1">
@@ -9489,10 +9489,10 @@
         <v>0</v>
       </c>
       <c r="P62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" s="1">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9567,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="AP62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ62" s="1">
         <v>0</v>
@@ -9593,16 +9593,16 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C63" s="1">
         <v>5462328</v>
       </c>
       <c r="D63" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E63" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F63" t="s">
         <v>155</v>
@@ -9737,16 +9737,16 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C64" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D64" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E64" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F64" t="s">
         <v>108</v>
@@ -9777,16 +9777,16 @@
         <v>0</v>
       </c>
       <c r="P64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T64" s="1">
         <v>0</v>
@@ -9840,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="AK64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL64" s="1">
         <v>0</v>
@@ -9881,16 +9881,16 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C65" s="1">
         <v>88890</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F65" t="s">
         <v>155</v>
@@ -10025,16 +10025,16 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C66" s="1">
         <v>3345</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E66" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F66" t="s">
         <v>108</v>
@@ -10169,16 +10169,16 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C67" s="1">
         <v>5707</v>
       </c>
       <c r="D67" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E67" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F67" t="s">
         <v>108</v>
@@ -10313,19 +10313,19 @@
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C68" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D68" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E68" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="F68" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G68" t="s">
         <v>157</v>
@@ -10337,10 +10337,10 @@
         <v>1426</v>
       </c>
       <c r="J68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
@@ -10353,10 +10353,10 @@
         <v>0</v>
       </c>
       <c r="P68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" s="1">
         <v>0</v>
@@ -10416,7 +10416,7 @@
         <v>0</v>
       </c>
       <c r="AK68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68" s="1">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="AS68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT68" s="1">
         <v>0</v>
@@ -10457,19 +10457,19 @@
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C69" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D69" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" t="s">
+        <v>131</v>
+      </c>
+      <c r="F69" t="s">
         <v>108</v>
-      </c>
-      <c r="E69" t="s">
-        <v>108</v>
-      </c>
-      <c r="F69" t="s">
-        <v>155</v>
       </c>
       <c r="G69" t="s">
         <v>157</v>
@@ -10481,10 +10481,10 @@
         <v>1426</v>
       </c>
       <c r="J69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -10497,10 +10497,10 @@
         <v>0</v>
       </c>
       <c r="P69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69" s="1">
         <v>0</v>
@@ -10560,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="AK69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL69" s="1">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="AS69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT69" s="1">
         <v>0</v>
@@ -10601,16 +10601,16 @@
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C70" s="1">
         <v>88890</v>
       </c>
       <c r="D70" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E70" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F70" t="s">
         <v>108</v>
@@ -10745,16 +10745,16 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C71" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D71" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E71" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F71" t="s">
         <v>155</v>
@@ -10788,16 +10788,16 @@
         <v>0</v>
       </c>
       <c r="Q71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71" s="1">
         <v>0</v>
       </c>
       <c r="S71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71" s="1">
         <v>0</v>
@@ -10848,7 +10848,7 @@
         <v>0</v>
       </c>
       <c r="AK71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL71" s="1">
         <v>0</v>
@@ -10889,16 +10889,16 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C72" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D72" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E72" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F72" t="s">
         <v>155</v>
@@ -10932,16 +10932,16 @@
         <v>0</v>
       </c>
       <c r="Q72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72" s="1">
         <v>0</v>
       </c>
       <c r="S72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U72" s="1">
         <v>0</v>
@@ -10992,7 +10992,7 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL72" s="1">
         <v>0</v>
@@ -11033,16 +11033,16 @@
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C73" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D73" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E73" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F73" t="s">
         <v>108</v>
@@ -11073,16 +11073,16 @@
         <v>0</v>
       </c>
       <c r="P73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T73" s="1">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="AK73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL73" s="1">
         <v>0</v>
@@ -11177,16 +11177,16 @@
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C74" s="1">
         <v>88890</v>
       </c>
       <c r="D74" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E74" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F74" t="s">
         <v>108</v>
@@ -11321,16 +11321,16 @@
         <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C75" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D75" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E75" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F75" t="s">
         <v>108</v>
@@ -11361,16 +11361,16 @@
         <v>0</v>
       </c>
       <c r="P75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75" s="1">
         <v>0</v>
@@ -11424,7 +11424,7 @@
         <v>0</v>
       </c>
       <c r="AK75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL75" s="1">
         <v>0</v>
@@ -11465,16 +11465,16 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C76" s="1">
         <v>88890</v>
       </c>
       <c r="D76" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E76" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F76" t="s">
         <v>108</v>
@@ -11609,16 +11609,16 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C77" s="1">
         <v>3345</v>
       </c>
       <c r="D77" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E77" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F77" t="s">
         <v>108</v>
@@ -11753,16 +11753,16 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C78" s="1">
-        <v>5707</v>
+        <v>2519</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E78" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F78" t="s">
         <v>108</v>
@@ -11799,10 +11799,10 @@
         <v>0</v>
       </c>
       <c r="R78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T78" s="1">
         <v>0</v>
@@ -11820,7 +11820,7 @@
         <v>0</v>
       </c>
       <c r="Y78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z78" s="1">
         <v>0</v>
@@ -11871,7 +11871,7 @@
         <v>0</v>
       </c>
       <c r="AP78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ78" s="1">
         <v>0</v>
@@ -11897,16 +11897,16 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C79" s="1">
-        <v>2519</v>
+        <v>5707</v>
       </c>
       <c r="D79" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E79" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F79" t="s">
         <v>108</v>
@@ -11943,10 +11943,10 @@
         <v>0</v>
       </c>
       <c r="R79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T79" s="1">
         <v>0</v>
@@ -11964,7 +11964,7 @@
         <v>0</v>
       </c>
       <c r="Y79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z79" s="1">
         <v>0</v>
@@ -12015,7 +12015,7 @@
         <v>0</v>
       </c>
       <c r="AP79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ79" s="1">
         <v>0</v>
@@ -12041,16 +12041,16 @@
         <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C80" s="1">
         <v>3345</v>
       </c>
       <c r="D80" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E80" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F80" t="s">
         <v>155</v>
@@ -12188,7 +12188,7 @@
         <v>71</v>
       </c>
       <c r="C81" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D81" t="s">
         <v>107</v>
@@ -12197,7 +12197,7 @@
         <v>136</v>
       </c>
       <c r="F81" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G81" t="s">
         <v>157</v>
@@ -12209,10 +12209,10 @@
         <v>1651</v>
       </c>
       <c r="J81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1">
@@ -12231,10 +12231,10 @@
         <v>0</v>
       </c>
       <c r="R81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T81" s="1">
         <v>0</v>
@@ -12312,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="AS81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT81" s="1">
         <v>0</v>
@@ -12329,19 +12329,19 @@
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C82" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D82" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E82" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F82" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G82" t="s">
         <v>157</v>
@@ -12353,10 +12353,10 @@
         <v>1651</v>
       </c>
       <c r="J82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1">
@@ -12375,10 +12375,10 @@
         <v>0</v>
       </c>
       <c r="R82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T82" s="1">
         <v>0</v>
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
       <c r="AS82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT82" s="1">
         <v>0</v>
@@ -12476,7 +12476,7 @@
         <v>71</v>
       </c>
       <c r="C83" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D83" t="s">
         <v>107</v>
@@ -12522,10 +12522,10 @@
         <v>0</v>
       </c>
       <c r="S83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U83" s="1">
         <v>0</v>
@@ -12600,7 +12600,7 @@
         <v>0</v>
       </c>
       <c r="AS83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT83" s="1">
         <v>0</v>
@@ -12617,16 +12617,16 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C84" s="1">
         <v>3345</v>
       </c>
       <c r="D84" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E84" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F84" t="s">
         <v>108</v>
@@ -12761,16 +12761,16 @@
         <v>18</v>
       </c>
       <c r="B85" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C85" s="1">
-        <v>88890</v>
+        <v>5486550</v>
       </c>
       <c r="D85" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="E85" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="F85" t="s">
         <v>155</v>
@@ -12864,7 +12864,7 @@
         <v>0</v>
       </c>
       <c r="AK85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL85" s="1">
         <v>0</v>
@@ -12882,13 +12882,13 @@
         <v>0</v>
       </c>
       <c r="AQ85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR85" s="1">
         <v>0</v>
       </c>
       <c r="AS85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT85" s="1">
         <v>0</v>
@@ -12905,16 +12905,16 @@
         <v>18</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C86" s="1">
-        <v>5486550</v>
+        <v>5707</v>
       </c>
       <c r="D86" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E86" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F86" t="s">
         <v>155</v>
@@ -12954,10 +12954,10 @@
         <v>0</v>
       </c>
       <c r="S86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U86" s="1">
         <v>0</v>
@@ -13008,7 +13008,7 @@
         <v>0</v>
       </c>
       <c r="AK86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL86" s="1">
         <v>0</v>
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="AQ86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR86" s="1">
         <v>0</v>
@@ -13049,16 +13049,16 @@
         <v>18</v>
       </c>
       <c r="B87" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C87" s="1">
         <v>5462328</v>
       </c>
       <c r="D87" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E87" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F87" t="s">
         <v>108</v>
@@ -13193,16 +13193,16 @@
         <v>19</v>
       </c>
       <c r="B88" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C88" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E88" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F88" t="s">
         <v>108</v>
@@ -13233,16 +13233,16 @@
         <v>0</v>
       </c>
       <c r="P88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T88" s="1">
         <v>0</v>
@@ -13296,7 +13296,7 @@
         <v>0</v>
       </c>
       <c r="AK88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL88" s="1">
         <v>0</v>
@@ -13337,16 +13337,16 @@
         <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C89" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D89" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E89" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F89" t="s">
         <v>108</v>
@@ -13377,10 +13377,10 @@
         <v>0</v>
       </c>
       <c r="P89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R89" s="1">
         <v>0</v>
@@ -13440,7 +13440,7 @@
         <v>0</v>
       </c>
       <c r="AK89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL89" s="1">
         <v>0</v>
@@ -13464,7 +13464,7 @@
         <v>0</v>
       </c>
       <c r="AS89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT89" s="1">
         <v>0</v>
@@ -13481,19 +13481,19 @@
         <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C90" s="1">
-        <v>88890</v>
+        <v>62300</v>
       </c>
       <c r="D90" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E90" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F90" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G90" t="s">
         <v>157</v>
@@ -13505,10 +13505,10 @@
         <v>1657</v>
       </c>
       <c r="J90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90" s="1"/>
       <c r="M90" s="1">
@@ -13584,7 +13584,7 @@
         <v>0</v>
       </c>
       <c r="AK90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL90" s="1">
         <v>0</v>
@@ -13608,7 +13608,7 @@
         <v>0</v>
       </c>
       <c r="AS90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT90" s="1">
         <v>0</v>
@@ -13628,7 +13628,7 @@
         <v>69</v>
       </c>
       <c r="C91" s="1">
-        <v>62300</v>
+        <v>5707</v>
       </c>
       <c r="D91" t="s">
         <v>105</v>
@@ -13637,7 +13637,7 @@
         <v>134</v>
       </c>
       <c r="F91" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G91" t="s">
         <v>157</v>
@@ -13649,10 +13649,10 @@
         <v>1657</v>
       </c>
       <c r="J91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91" s="1"/>
       <c r="M91" s="1">
@@ -13671,10 +13671,10 @@
         <v>0</v>
       </c>
       <c r="R91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T91" s="1">
         <v>0</v>
@@ -13728,7 +13728,7 @@
         <v>0</v>
       </c>
       <c r="AK91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL91" s="1">
         <v>0</v>
@@ -13769,19 +13769,19 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C92" s="1">
-        <v>88890</v>
+        <v>62300</v>
       </c>
       <c r="D92" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E92" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F92" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G92" t="s">
         <v>157</v>
@@ -13793,10 +13793,10 @@
         <v>1660</v>
       </c>
       <c r="J92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" s="1"/>
       <c r="M92" s="1">
@@ -13872,7 +13872,7 @@
         <v>0</v>
       </c>
       <c r="AK92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL92" s="1">
         <v>0</v>
@@ -13896,7 +13896,7 @@
         <v>0</v>
       </c>
       <c r="AS92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT92" s="1">
         <v>0</v>
@@ -13913,16 +13913,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C93" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D93" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E93" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F93" t="s">
         <v>108</v>
@@ -13953,10 +13953,10 @@
         <v>0</v>
       </c>
       <c r="P93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93" s="1">
         <v>0</v>
@@ -14016,7 +14016,7 @@
         <v>0</v>
       </c>
       <c r="AK93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL93" s="1">
         <v>0</v>
@@ -14040,7 +14040,7 @@
         <v>0</v>
       </c>
       <c r="AS93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT93" s="1">
         <v>0</v>
@@ -14057,19 +14057,19 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C94" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D94" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E94" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F94" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G94" t="s">
         <v>157</v>
@@ -14081,10 +14081,10 @@
         <v>1660</v>
       </c>
       <c r="J94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1">
@@ -14097,10 +14097,10 @@
         <v>0</v>
       </c>
       <c r="P94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R94" s="1">
         <v>0</v>
@@ -14201,16 +14201,16 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C95" s="1">
         <v>5707</v>
       </c>
       <c r="D95" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E95" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F95" t="s">
         <v>108</v>
@@ -14487,19 +14487,19 @@
         <v>21</v>
       </c>
       <c r="B97" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C97" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D97" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E97" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F97" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G97" t="s">
         <v>157</v>
@@ -14511,10 +14511,10 @@
         <v>1670</v>
       </c>
       <c r="J97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97" s="1"/>
       <c r="M97" s="1">
@@ -14530,13 +14530,13 @@
         <v>0</v>
       </c>
       <c r="Q97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T97" s="1">
         <v>0</v>
@@ -14590,7 +14590,7 @@
         <v>0</v>
       </c>
       <c r="AK97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL97" s="1">
         <v>0</v>
@@ -14631,19 +14631,19 @@
         <v>21</v>
       </c>
       <c r="B98" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C98" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D98" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E98" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F98" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G98" t="s">
         <v>157</v>
@@ -14655,10 +14655,10 @@
         <v>1670</v>
       </c>
       <c r="J98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" s="1"/>
       <c r="M98" s="1">
@@ -14674,13 +14674,13 @@
         <v>0</v>
       </c>
       <c r="Q98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T98" s="1">
         <v>0</v>
@@ -14734,7 +14734,7 @@
         <v>0</v>
       </c>
       <c r="AK98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL98" s="1">
         <v>0</v>
@@ -14775,19 +14775,19 @@
         <v>22</v>
       </c>
       <c r="B99" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C99" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D99" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E99" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F99" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G99" t="s">
         <v>157</v>
@@ -14799,10 +14799,10 @@
         <v>1673</v>
       </c>
       <c r="J99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" s="1"/>
       <c r="M99" s="1">
@@ -14815,10 +14815,10 @@
         <v>0</v>
       </c>
       <c r="P99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R99" s="1">
         <v>0</v>
@@ -14878,7 +14878,7 @@
         <v>0</v>
       </c>
       <c r="AK99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL99" s="1">
         <v>0</v>
@@ -14902,7 +14902,7 @@
         <v>0</v>
       </c>
       <c r="AS99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT99" s="1">
         <v>0</v>
@@ -14919,16 +14919,16 @@
         <v>22</v>
       </c>
       <c r="B100" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C100" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D100" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E100" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F100" t="s">
         <v>108</v>
@@ -14959,16 +14959,16 @@
         <v>0</v>
       </c>
       <c r="P100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T100" s="1">
         <v>0</v>
@@ -15022,7 +15022,7 @@
         <v>0</v>
       </c>
       <c r="AK100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL100" s="1">
         <v>0</v>
@@ -15063,19 +15063,19 @@
         <v>22</v>
       </c>
       <c r="B101" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C101" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D101" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E101" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F101" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G101" t="s">
         <v>157</v>
@@ -15087,10 +15087,10 @@
         <v>1673</v>
       </c>
       <c r="J101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101" s="1"/>
       <c r="M101" s="1">
@@ -15109,10 +15109,10 @@
         <v>0</v>
       </c>
       <c r="R101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T101" s="1">
         <v>0</v>
@@ -15190,7 +15190,7 @@
         <v>0</v>
       </c>
       <c r="AS101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT101" s="1">
         <v>0</v>
@@ -15207,19 +15207,19 @@
         <v>23</v>
       </c>
       <c r="B102" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C102" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D102" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E102" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F102" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G102" t="s">
         <v>157</v>
@@ -15231,10 +15231,10 @@
         <v>1677</v>
       </c>
       <c r="J102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1">
@@ -15247,10 +15247,10 @@
         <v>0</v>
       </c>
       <c r="P102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R102" s="1">
         <v>0</v>
@@ -15310,7 +15310,7 @@
         <v>0</v>
       </c>
       <c r="AK102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL102" s="1">
         <v>0</v>
@@ -15334,7 +15334,7 @@
         <v>0</v>
       </c>
       <c r="AS102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT102" s="1">
         <v>0</v>
@@ -15351,19 +15351,19 @@
         <v>23</v>
       </c>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C103" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D103" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E103" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F103" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G103" t="s">
         <v>157</v>
@@ -15375,10 +15375,10 @@
         <v>1677</v>
       </c>
       <c r="J103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L103" s="1"/>
       <c r="M103" s="1">
@@ -15391,10 +15391,10 @@
         <v>0</v>
       </c>
       <c r="P103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R103" s="1">
         <v>0</v>
@@ -15454,7 +15454,7 @@
         <v>0</v>
       </c>
       <c r="AK103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL103" s="1">
         <v>0</v>
@@ -15478,7 +15478,7 @@
         <v>0</v>
       </c>
       <c r="AS103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT103" s="1">
         <v>0</v>
@@ -15495,16 +15495,16 @@
         <v>24</v>
       </c>
       <c r="B104" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C104" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D104" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E104" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F104" t="s">
         <v>108</v>
@@ -15535,10 +15535,10 @@
         <v>0</v>
       </c>
       <c r="P104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R104" s="1">
         <v>0</v>
@@ -15598,7 +15598,7 @@
         <v>0</v>
       </c>
       <c r="AK104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL104" s="1">
         <v>0</v>
@@ -15622,7 +15622,7 @@
         <v>0</v>
       </c>
       <c r="AS104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT104" s="1">
         <v>0</v>
@@ -15639,16 +15639,14 @@
         <v>24</v>
       </c>
       <c r="B105" t="s">
-        <v>62</v>
-      </c>
-      <c r="C105" s="1">
-        <v>88890</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C105" s="1"/>
       <c r="D105" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E105" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F105" t="s">
         <v>108</v>
@@ -15766,7 +15764,7 @@
         <v>0</v>
       </c>
       <c r="AS105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT105" s="1">
         <v>0</v>
@@ -15783,14 +15781,16 @@
         <v>24</v>
       </c>
       <c r="B106" t="s">
-        <v>84</v>
-      </c>
-      <c r="C106" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="C106" s="1">
+        <v>3345</v>
+      </c>
       <c r="D106" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E106" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="F106" t="s">
         <v>108</v>
@@ -15821,10 +15821,10 @@
         <v>0</v>
       </c>
       <c r="P106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R106" s="1">
         <v>0</v>
@@ -15884,7 +15884,7 @@
         <v>0</v>
       </c>
       <c r="AK106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL106" s="1">
         <v>0</v>
@@ -15925,16 +15925,16 @@
         <v>25</v>
       </c>
       <c r="B107" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C107" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D107" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E107" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F107" t="s">
         <v>108</v>
@@ -15965,16 +15965,16 @@
         <v>0</v>
       </c>
       <c r="P107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T107" s="1">
         <v>0</v>
@@ -16028,7 +16028,7 @@
         <v>0</v>
       </c>
       <c r="AK107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL107" s="1">
         <v>0</v>
@@ -16069,19 +16069,19 @@
         <v>25</v>
       </c>
       <c r="B108" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C108" s="1">
-        <v>5707</v>
+        <v>62300</v>
       </c>
       <c r="D108" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E108" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F108" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G108" t="s">
         <v>157</v>
@@ -16093,10 +16093,10 @@
         <v>1689</v>
       </c>
       <c r="J108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108" s="1"/>
       <c r="M108" s="1">
@@ -16115,10 +16115,10 @@
         <v>0</v>
       </c>
       <c r="R108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T108" s="1">
         <v>0</v>
@@ -16172,7 +16172,7 @@
         <v>0</v>
       </c>
       <c r="AK108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL108" s="1">
         <v>0</v>
@@ -16213,16 +16213,16 @@
         <v>25</v>
       </c>
       <c r="B109" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C109" s="1">
         <v>88890</v>
       </c>
       <c r="D109" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E109" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F109" t="s">
         <v>108</v>
@@ -16357,19 +16357,19 @@
         <v>25</v>
       </c>
       <c r="B110" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C110" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D110" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E110" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F110" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G110" t="s">
         <v>157</v>
@@ -16381,10 +16381,10 @@
         <v>1689</v>
       </c>
       <c r="J110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110" s="1"/>
       <c r="M110" s="1">
@@ -16397,10 +16397,10 @@
         <v>0</v>
       </c>
       <c r="P110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R110" s="1">
         <v>0</v>
@@ -16501,16 +16501,16 @@
         <v>26</v>
       </c>
       <c r="B111" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C111" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D111" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E111" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F111" t="s">
         <v>108</v>
@@ -16541,16 +16541,16 @@
         <v>0</v>
       </c>
       <c r="P111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T111" s="1">
         <v>0</v>
@@ -16604,7 +16604,7 @@
         <v>0</v>
       </c>
       <c r="AK111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL111" s="1">
         <v>0</v>
@@ -16645,16 +16645,16 @@
         <v>26</v>
       </c>
       <c r="B112" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C112" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D112" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E112" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F112" t="s">
         <v>108</v>
@@ -16685,16 +16685,16 @@
         <v>0</v>
       </c>
       <c r="P112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T112" s="1">
         <v>0</v>
@@ -16748,7 +16748,7 @@
         <v>0</v>
       </c>
       <c r="AK112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL112" s="1">
         <v>0</v>
@@ -16789,16 +16789,16 @@
         <v>26</v>
       </c>
       <c r="B113" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C113" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D113" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E113" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F113" t="s">
         <v>108</v>
@@ -16892,7 +16892,7 @@
         <v>0</v>
       </c>
       <c r="AK113" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL113" s="1">
         <v>0</v>
@@ -16916,7 +16916,7 @@
         <v>0</v>
       </c>
       <c r="AS113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT113" s="1">
         <v>0</v>
@@ -16933,16 +16933,16 @@
         <v>26</v>
       </c>
       <c r="B114" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C114" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D114" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E114" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F114" t="s">
         <v>108</v>
@@ -17036,7 +17036,7 @@
         <v>0</v>
       </c>
       <c r="AK114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL114" s="1">
         <v>0</v>
@@ -17060,7 +17060,7 @@
         <v>0</v>
       </c>
       <c r="AS114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT114" s="1">
         <v>0</v>
@@ -17077,16 +17077,16 @@
         <v>27</v>
       </c>
       <c r="B115" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C115" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D115" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E115" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F115" t="s">
         <v>108</v>
@@ -17180,7 +17180,7 @@
         <v>0</v>
       </c>
       <c r="AK115" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL115" s="1">
         <v>0</v>
@@ -17204,7 +17204,7 @@
         <v>0</v>
       </c>
       <c r="AS115" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT115" s="1">
         <v>0</v>
@@ -17221,16 +17221,16 @@
         <v>27</v>
       </c>
       <c r="B116" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C116" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D116" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E116" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F116" t="s">
         <v>108</v>
@@ -17267,10 +17267,10 @@
         <v>0</v>
       </c>
       <c r="R116" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S116" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T116" s="1">
         <v>0</v>
@@ -17348,7 +17348,7 @@
         <v>0</v>
       </c>
       <c r="AS116" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT116" s="1">
         <v>0</v>
@@ -17365,16 +17365,16 @@
         <v>27</v>
       </c>
       <c r="B117" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C117" s="1">
-        <v>5707</v>
+        <v>62300</v>
       </c>
       <c r="D117" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E117" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F117" t="s">
         <v>108</v>
@@ -17411,10 +17411,10 @@
         <v>0</v>
       </c>
       <c r="R117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T117" s="1">
         <v>0</v>
@@ -17468,7 +17468,7 @@
         <v>0</v>
       </c>
       <c r="AK117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL117" s="1">
         <v>0</v>
@@ -17509,16 +17509,16 @@
         <v>27</v>
       </c>
       <c r="B118" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C118" s="1">
         <v>3345</v>
       </c>
       <c r="D118" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E118" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F118" t="s">
         <v>108</v>
@@ -17653,19 +17653,19 @@
         <v>28</v>
       </c>
       <c r="B119" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C119" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D119" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E119" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F119" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G119" t="s">
         <v>157</v>
@@ -17677,10 +17677,10 @@
         <v>1694</v>
       </c>
       <c r="J119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L119" s="1"/>
       <c r="M119" s="1">
@@ -17699,10 +17699,10 @@
         <v>0</v>
       </c>
       <c r="R119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T119" s="1">
         <v>0</v>
@@ -17780,7 +17780,7 @@
         <v>0</v>
       </c>
       <c r="AS119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT119" s="1">
         <v>0</v>
@@ -17797,19 +17797,19 @@
         <v>28</v>
       </c>
       <c r="B120" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C120" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D120" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E120" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F120" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G120" t="s">
         <v>157</v>
@@ -17821,10 +17821,10 @@
         <v>1694</v>
       </c>
       <c r="J120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L120" s="1"/>
       <c r="M120" s="1">
@@ -17837,10 +17837,10 @@
         <v>0</v>
       </c>
       <c r="P120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R120" s="1">
         <v>0</v>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="AK120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL120" s="1">
         <v>0</v>
@@ -17924,7 +17924,7 @@
         <v>0</v>
       </c>
       <c r="AS120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT120" s="1">
         <v>0</v>
@@ -17941,16 +17941,16 @@
         <v>28</v>
       </c>
       <c r="B121" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C121" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D121" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E121" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F121" t="s">
         <v>108</v>
@@ -17981,16 +17981,16 @@
         <v>0</v>
       </c>
       <c r="P121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R121" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S121" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T121" s="1">
         <v>0</v>
@@ -18044,7 +18044,7 @@
         <v>0</v>
       </c>
       <c r="AK121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL121" s="1">
         <v>0</v>
@@ -18085,16 +18085,16 @@
         <v>29</v>
       </c>
       <c r="B122" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C122" s="1">
-        <v>3100</v>
+        <v>5707</v>
       </c>
       <c r="D122" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E122" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F122" t="s">
         <v>108</v>
@@ -18131,10 +18131,10 @@
         <v>0</v>
       </c>
       <c r="R122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T122" s="1">
         <v>0</v>
@@ -18203,7 +18203,7 @@
         <v>0</v>
       </c>
       <c r="AP122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ122" s="1">
         <v>0</v>
@@ -18229,19 +18229,19 @@
         <v>29</v>
       </c>
       <c r="B123" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C123" s="1">
-        <v>2519</v>
+        <v>3100</v>
       </c>
       <c r="D123" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E123" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F123" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G123" t="s">
         <v>157</v>
@@ -18253,10 +18253,10 @@
         <v>1700</v>
       </c>
       <c r="J123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L123" s="1"/>
       <c r="M123" s="1">
@@ -18373,19 +18373,19 @@
         <v>29</v>
       </c>
       <c r="B124" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C124" s="1">
-        <v>5707</v>
+        <v>2519</v>
       </c>
       <c r="D124" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E124" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F124" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G124" t="s">
         <v>157</v>
@@ -18397,10 +18397,10 @@
         <v>1700</v>
       </c>
       <c r="J124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L124" s="1"/>
       <c r="M124" s="1">
@@ -18419,10 +18419,10 @@
         <v>0</v>
       </c>
       <c r="R124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T124" s="1">
         <v>0</v>
@@ -18491,7 +18491,7 @@
         <v>0</v>
       </c>
       <c r="AP124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ124" s="1">
         <v>0</v>
@@ -18517,16 +18517,16 @@
         <v>29</v>
       </c>
       <c r="B125" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C125" s="1">
         <v>88890</v>
       </c>
       <c r="D125" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E125" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F125" t="s">
         <v>108</v>
@@ -18661,16 +18661,16 @@
         <v>29</v>
       </c>
       <c r="B126" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C126" s="1">
         <v>3345</v>
       </c>
       <c r="D126" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E126" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F126" t="s">
         <v>108</v>
@@ -18949,19 +18949,19 @@
         <v>30</v>
       </c>
       <c r="B128" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C128" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D128" t="s">
+        <v>102</v>
+      </c>
+      <c r="E128" t="s">
+        <v>131</v>
+      </c>
+      <c r="F128" t="s">
         <v>108</v>
-      </c>
-      <c r="E128" t="s">
-        <v>108</v>
-      </c>
-      <c r="F128" t="s">
-        <v>155</v>
       </c>
       <c r="G128" t="s">
         <v>157</v>
@@ -18973,10 +18973,10 @@
         <v>1702</v>
       </c>
       <c r="J128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L128" s="1"/>
       <c r="M128" s="1">
@@ -18989,10 +18989,10 @@
         <v>0</v>
       </c>
       <c r="P128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R128" s="1">
         <v>0</v>
@@ -19052,7 +19052,7 @@
         <v>0</v>
       </c>
       <c r="AK128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL128" s="1">
         <v>0</v>
@@ -19076,7 +19076,7 @@
         <v>0</v>
       </c>
       <c r="AS128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT128" s="1">
         <v>0</v>
@@ -19093,19 +19093,19 @@
         <v>30</v>
       </c>
       <c r="B129" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C129" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D129" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E129" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="F129" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G129" t="s">
         <v>157</v>
@@ -19117,10 +19117,10 @@
         <v>1702</v>
       </c>
       <c r="J129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L129" s="1"/>
       <c r="M129" s="1">
@@ -19133,10 +19133,10 @@
         <v>0</v>
       </c>
       <c r="P129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R129" s="1">
         <v>0</v>
@@ -19196,7 +19196,7 @@
         <v>0</v>
       </c>
       <c r="AK129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL129" s="1">
         <v>0</v>
@@ -19220,7 +19220,7 @@
         <v>0</v>
       </c>
       <c r="AS129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT129" s="1">
         <v>0</v>
@@ -19237,7 +19237,7 @@
         <v>31</v>
       </c>
       <c r="B130" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C130" s="1">
         <v>2519</v>
@@ -19381,16 +19381,16 @@
         <v>31</v>
       </c>
       <c r="B131" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C131" s="1">
-        <v>3100</v>
+        <v>5707</v>
       </c>
       <c r="D131" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E131" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F131" t="s">
         <v>108</v>
@@ -19427,10 +19427,10 @@
         <v>0</v>
       </c>
       <c r="R131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T131" s="1">
         <v>0</v>
@@ -19499,7 +19499,7 @@
         <v>0</v>
       </c>
       <c r="AP131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ131" s="1">
         <v>0</v>
@@ -19525,16 +19525,16 @@
         <v>31</v>
       </c>
       <c r="B132" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C132" s="1">
-        <v>88890</v>
+        <v>3100</v>
       </c>
       <c r="D132" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E132" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F132" t="s">
         <v>108</v>
@@ -19643,7 +19643,7 @@
         <v>0</v>
       </c>
       <c r="AP132" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ132" s="1">
         <v>0</v>
@@ -19652,7 +19652,7 @@
         <v>0</v>
       </c>
       <c r="AS132" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT132" s="1">
         <v>0</v>
@@ -19669,16 +19669,16 @@
         <v>31</v>
       </c>
       <c r="B133" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C133" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D133" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E133" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F133" t="s">
         <v>108</v>
@@ -19709,16 +19709,16 @@
         <v>0</v>
       </c>
       <c r="P133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T133" s="1">
         <v>0</v>
@@ -19772,7 +19772,7 @@
         <v>0</v>
       </c>
       <c r="AK133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL133" s="1">
         <v>0</v>
@@ -19813,16 +19813,16 @@
         <v>31</v>
       </c>
       <c r="B134" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C134" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D134" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E134" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F134" t="s">
         <v>108</v>
@@ -19853,10 +19853,10 @@
         <v>0</v>
       </c>
       <c r="P134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R134" s="1">
         <v>0</v>
@@ -19916,7 +19916,7 @@
         <v>0</v>
       </c>
       <c r="AK134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL134" s="1">
         <v>0</v>
@@ -19940,7 +19940,7 @@
         <v>0</v>
       </c>
       <c r="AS134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT134" s="1">
         <v>0</v>
@@ -20101,19 +20101,19 @@
         <v>33</v>
       </c>
       <c r="B136" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C136" s="1">
-        <v>338</v>
+        <v>62300</v>
       </c>
       <c r="D136" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E136" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="F136" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G136" t="s">
         <v>157</v>
@@ -20125,10 +20125,10 @@
         <v>1773</v>
       </c>
       <c r="J136" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K136" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L136" s="1"/>
       <c r="M136" s="1">
@@ -20204,7 +20204,7 @@
         <v>0</v>
       </c>
       <c r="AK136" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL136" s="1">
         <v>0</v>
@@ -20245,16 +20245,14 @@
         <v>33</v>
       </c>
       <c r="B137" t="s">
-        <v>88</v>
-      </c>
-      <c r="C137" s="1">
-        <v>4754</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C137" s="1"/>
       <c r="D137" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E137" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="F137" t="s">
         <v>155</v>
@@ -20363,7 +20361,7 @@
         <v>0</v>
       </c>
       <c r="AP137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ137" s="1">
         <v>0</v>
@@ -20389,17 +20387,19 @@
         <v>33</v>
       </c>
       <c r="B138" t="s">
-        <v>89</v>
-      </c>
-      <c r="C138" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="C138" s="1">
+        <v>2519</v>
+      </c>
       <c r="D138" t="s">
+        <v>114</v>
+      </c>
+      <c r="E138" t="s">
+        <v>142</v>
+      </c>
+      <c r="F138" t="s">
         <v>108</v>
-      </c>
-      <c r="E138" t="s">
-        <v>108</v>
-      </c>
-      <c r="F138" t="s">
-        <v>155</v>
       </c>
       <c r="G138" t="s">
         <v>157</v>
@@ -20411,10 +20411,10 @@
         <v>1773</v>
       </c>
       <c r="J138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L138" s="1"/>
       <c r="M138" s="1">
@@ -20454,7 +20454,7 @@
         <v>0</v>
       </c>
       <c r="Y138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z138" s="1">
         <v>0</v>
@@ -20505,7 +20505,7 @@
         <v>0</v>
       </c>
       <c r="AP138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ138" s="1">
         <v>0</v>
@@ -20531,19 +20531,19 @@
         <v>33</v>
       </c>
       <c r="B139" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C139" s="1">
-        <v>2519</v>
+        <v>4754</v>
       </c>
       <c r="D139" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E139" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F139" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G139" t="s">
         <v>157</v>
@@ -20555,10 +20555,10 @@
         <v>1773</v>
       </c>
       <c r="J139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L139" s="1"/>
       <c r="M139" s="1">
@@ -20598,7 +20598,7 @@
         <v>0</v>
       </c>
       <c r="Y139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z139" s="1">
         <v>0</v>
@@ -20675,19 +20675,19 @@
         <v>33</v>
       </c>
       <c r="B140" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C140" s="1">
-        <v>5707</v>
+        <v>21812144</v>
       </c>
       <c r="D140" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E140" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="F140" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G140" t="s">
         <v>157</v>
@@ -20699,10 +20699,10 @@
         <v>1773</v>
       </c>
       <c r="J140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K140" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L140" s="1"/>
       <c r="M140" s="1">
@@ -20721,10 +20721,10 @@
         <v>0</v>
       </c>
       <c r="R140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T140" s="1">
         <v>0</v>
@@ -20778,7 +20778,7 @@
         <v>0</v>
       </c>
       <c r="AK140" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL140" s="1">
         <v>0</v>
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="AT140" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU140" s="1">
         <v>0</v>
@@ -20819,16 +20819,16 @@
         <v>33</v>
       </c>
       <c r="B141" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C141" s="1">
         <v>88890</v>
       </c>
       <c r="D141" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E141" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F141" t="s">
         <v>155</v>
@@ -20963,19 +20963,19 @@
         <v>33</v>
       </c>
       <c r="B142" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C142" s="1">
-        <v>3345</v>
+        <v>338</v>
       </c>
       <c r="D142" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E142" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="F142" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G142" t="s">
         <v>157</v>
@@ -20987,10 +20987,10 @@
         <v>1773</v>
       </c>
       <c r="J142" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L142" s="1"/>
       <c r="M142" s="1">
@@ -21006,7 +21006,7 @@
         <v>0</v>
       </c>
       <c r="Q142" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R142" s="1">
         <v>0</v>
@@ -21066,7 +21066,7 @@
         <v>0</v>
       </c>
       <c r="AK142" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL142" s="1">
         <v>0</v>
@@ -21107,16 +21107,16 @@
         <v>33</v>
       </c>
       <c r="B143" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C143" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D143" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E143" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F143" t="s">
         <v>155</v>
@@ -21150,7 +21150,7 @@
         <v>0</v>
       </c>
       <c r="Q143" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R143" s="1">
         <v>0</v>
@@ -21251,16 +21251,16 @@
         <v>33</v>
       </c>
       <c r="B144" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C144" s="1">
         <v>2244</v>
       </c>
       <c r="D144" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E144" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F144" t="s">
         <v>108</v>
@@ -21395,19 +21395,19 @@
         <v>33</v>
       </c>
       <c r="B145" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C145" s="1">
-        <v>21812144</v>
+        <v>5707</v>
       </c>
       <c r="D145" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E145" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="F145" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G145" t="s">
         <v>157</v>
@@ -21419,10 +21419,10 @@
         <v>1773</v>
       </c>
       <c r="J145" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K145" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L145" s="1"/>
       <c r="M145" s="1">
@@ -21441,10 +21441,10 @@
         <v>0</v>
       </c>
       <c r="R145" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S145" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T145" s="1">
         <v>0</v>
@@ -21498,7 +21498,7 @@
         <v>0</v>
       </c>
       <c r="AK145" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL145" s="1">
         <v>0</v>
@@ -21525,7 +21525,7 @@
         <v>0</v>
       </c>
       <c r="AT145" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU145" s="1">
         <v>0</v>
@@ -21539,19 +21539,19 @@
         <v>34</v>
       </c>
       <c r="B146" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C146" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D146" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E146" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F146" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G146" t="s">
         <v>157</v>
@@ -21563,10 +21563,10 @@
         <v>1774</v>
       </c>
       <c r="J146" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K146" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L146" s="1"/>
       <c r="M146" s="1">
@@ -21579,10 +21579,10 @@
         <v>0</v>
       </c>
       <c r="P146" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q146" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R146" s="1">
         <v>0</v>
@@ -21642,7 +21642,7 @@
         <v>0</v>
       </c>
       <c r="AK146" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL146" s="1">
         <v>0</v>
@@ -21666,7 +21666,7 @@
         <v>0</v>
       </c>
       <c r="AS146" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT146" s="1">
         <v>0</v>
@@ -21683,16 +21683,16 @@
         <v>34</v>
       </c>
       <c r="B147" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C147" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D147" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E147" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F147" t="s">
         <v>108</v>
@@ -21723,16 +21723,16 @@
         <v>0</v>
       </c>
       <c r="P147" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q147" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R147" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S147" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T147" s="1">
         <v>0</v>
@@ -21786,7 +21786,7 @@
         <v>0</v>
       </c>
       <c r="AK147" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL147" s="1">
         <v>0</v>
@@ -21830,7 +21830,7 @@
         <v>71</v>
       </c>
       <c r="C148" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D148" t="s">
         <v>107</v>
@@ -21839,7 +21839,7 @@
         <v>136</v>
       </c>
       <c r="F148" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G148" t="s">
         <v>157</v>
@@ -21851,10 +21851,10 @@
         <v>1774</v>
       </c>
       <c r="J148" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K148" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L148" s="1"/>
       <c r="M148" s="1">
@@ -21873,10 +21873,10 @@
         <v>0</v>
       </c>
       <c r="R148" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S148" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T148" s="1">
         <v>0</v>
@@ -21954,7 +21954,7 @@
         <v>0</v>
       </c>
       <c r="AS148" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT148" s="1">
         <v>0</v>
@@ -21971,16 +21971,16 @@
         <v>35</v>
       </c>
       <c r="B149" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C149" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D149" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E149" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F149" t="s">
         <v>108</v>
@@ -22011,10 +22011,10 @@
         <v>0</v>
       </c>
       <c r="P149" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q149" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R149" s="1">
         <v>0</v>
@@ -22074,7 +22074,7 @@
         <v>0</v>
       </c>
       <c r="AK149" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL149" s="1">
         <v>0</v>
@@ -22098,7 +22098,7 @@
         <v>0</v>
       </c>
       <c r="AS149" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT149" s="1">
         <v>0</v>
@@ -22257,16 +22257,16 @@
         <v>35</v>
       </c>
       <c r="B151" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C151" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D151" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E151" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F151" t="s">
         <v>108</v>
@@ -22297,10 +22297,10 @@
         <v>0</v>
       </c>
       <c r="P151" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q151" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R151" s="1">
         <v>0</v>
@@ -22360,7 +22360,7 @@
         <v>0</v>
       </c>
       <c r="AK151" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL151" s="1">
         <v>0</v>
@@ -22384,7 +22384,7 @@
         <v>0</v>
       </c>
       <c r="AS151" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT151" s="1">
         <v>0</v>
@@ -22401,16 +22401,16 @@
         <v>35</v>
       </c>
       <c r="B152" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C152" s="1">
         <v>5707</v>
       </c>
       <c r="D152" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E152" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F152" t="s">
         <v>108</v>
@@ -22689,16 +22689,16 @@
         <v>36</v>
       </c>
       <c r="B154" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C154" s="1">
         <v>88890</v>
       </c>
       <c r="D154" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E154" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F154" t="s">
         <v>108</v>
@@ -22833,16 +22833,16 @@
         <v>36</v>
       </c>
       <c r="B155" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C155" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D155" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E155" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F155" t="s">
         <v>108</v>
@@ -22873,16 +22873,16 @@
         <v>0</v>
       </c>
       <c r="P155" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q155" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R155" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S155" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T155" s="1">
         <v>0</v>
@@ -22936,7 +22936,7 @@
         <v>0</v>
       </c>
       <c r="AK155" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL155" s="1">
         <v>0</v>
@@ -22977,16 +22977,16 @@
         <v>36</v>
       </c>
       <c r="B156" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C156" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D156" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E156" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F156" t="s">
         <v>108</v>
@@ -23017,16 +23017,16 @@
         <v>0</v>
       </c>
       <c r="P156" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q156" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R156" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S156" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T156" s="1">
         <v>0</v>
@@ -23080,7 +23080,7 @@
         <v>0</v>
       </c>
       <c r="AK156" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL156" s="1">
         <v>0</v>
@@ -23121,16 +23121,16 @@
         <v>37</v>
       </c>
       <c r="B157" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C157" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D157" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E157" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F157" t="s">
         <v>108</v>
@@ -23161,16 +23161,16 @@
         <v>0</v>
       </c>
       <c r="P157" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q157" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R157" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S157" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T157" s="1">
         <v>0</v>
@@ -23224,7 +23224,7 @@
         <v>0</v>
       </c>
       <c r="AK157" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL157" s="1">
         <v>0</v>
@@ -23265,16 +23265,16 @@
         <v>37</v>
       </c>
       <c r="B158" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C158" s="1">
-        <v>3100</v>
+        <v>88890</v>
       </c>
       <c r="D158" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E158" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F158" t="s">
         <v>108</v>
@@ -23383,7 +23383,7 @@
         <v>0</v>
       </c>
       <c r="AP158" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ158" s="1">
         <v>0</v>
@@ -23392,7 +23392,7 @@
         <v>0</v>
       </c>
       <c r="AS158" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT158" s="1">
         <v>0</v>
@@ -23409,16 +23409,16 @@
         <v>37</v>
       </c>
       <c r="B159" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C159" s="1">
-        <v>88890</v>
+        <v>3100</v>
       </c>
       <c r="D159" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E159" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F159" t="s">
         <v>108</v>
@@ -23527,7 +23527,7 @@
         <v>0</v>
       </c>
       <c r="AP159" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ159" s="1">
         <v>0</v>
@@ -23536,7 +23536,7 @@
         <v>0</v>
       </c>
       <c r="AS159" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT159" s="1">
         <v>0</v>
@@ -23553,16 +23553,16 @@
         <v>37</v>
       </c>
       <c r="B160" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C160" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D160" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E160" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F160" t="s">
         <v>108</v>
@@ -23593,16 +23593,16 @@
         <v>0</v>
       </c>
       <c r="P160" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q160" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R160" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S160" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T160" s="1">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="AK160" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL160" s="1">
         <v>0</v>
@@ -23697,16 +23697,16 @@
         <v>38</v>
       </c>
       <c r="B161" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C161" s="1">
         <v>5707</v>
       </c>
       <c r="D161" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E161" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F161" t="s">
         <v>108</v>
@@ -23841,16 +23841,16 @@
         <v>38</v>
       </c>
       <c r="B162" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C162" s="1">
         <v>88890</v>
       </c>
       <c r="D162" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E162" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F162" t="s">
         <v>155</v>
@@ -23985,16 +23985,16 @@
         <v>38</v>
       </c>
       <c r="B163" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C163" s="1">
         <v>62300</v>
       </c>
       <c r="D163" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E163" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F163" t="s">
         <v>155</v>
@@ -24129,16 +24129,16 @@
         <v>38</v>
       </c>
       <c r="B164" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C164" s="1">
         <v>3345</v>
       </c>
       <c r="D164" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E164" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F164" t="s">
         <v>108</v>
@@ -24273,19 +24273,19 @@
         <v>39</v>
       </c>
       <c r="B165" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C165" s="1">
-        <v>165365057</v>
+        <v>5707</v>
       </c>
       <c r="D165" t="s">
+        <v>105</v>
+      </c>
+      <c r="E165" t="s">
+        <v>134</v>
+      </c>
+      <c r="F165" t="s">
         <v>108</v>
-      </c>
-      <c r="E165" t="s">
-        <v>108</v>
-      </c>
-      <c r="F165" t="s">
-        <v>155</v>
       </c>
       <c r="G165" t="s">
         <v>157</v>
@@ -24297,10 +24297,10 @@
         <v>1799</v>
       </c>
       <c r="J165" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K165" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L165" s="1"/>
       <c r="M165" s="1">
@@ -24319,10 +24319,10 @@
         <v>0</v>
       </c>
       <c r="R165" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S165" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T165" s="1">
         <v>0</v>
@@ -24400,7 +24400,7 @@
         <v>0</v>
       </c>
       <c r="AS165" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT165" s="1">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>71</v>
       </c>
       <c r="C166" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D166" t="s">
         <v>107</v>
@@ -24463,10 +24463,10 @@
         <v>0</v>
       </c>
       <c r="R166" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S166" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T166" s="1">
         <v>0</v>
@@ -24544,7 +24544,7 @@
         <v>0</v>
       </c>
       <c r="AS166" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT166" s="1">
         <v>0</v>
@@ -24561,16 +24561,16 @@
         <v>39</v>
       </c>
       <c r="B167" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C167" s="1">
         <v>3345</v>
       </c>
       <c r="D167" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E167" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F167" t="s">
         <v>108</v>
@@ -24705,19 +24705,19 @@
         <v>39</v>
       </c>
       <c r="B168" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C168" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D168" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E168" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F168" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G168" t="s">
         <v>157</v>
@@ -24729,10 +24729,10 @@
         <v>1799</v>
       </c>
       <c r="J168" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K168" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L168" s="1"/>
       <c r="M168" s="1">
@@ -24849,19 +24849,19 @@
         <v>40</v>
       </c>
       <c r="B169" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C169" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D169" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E169" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F169" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G169" t="s">
         <v>157</v>
@@ -24873,10 +24873,10 @@
         <v>1803</v>
       </c>
       <c r="J169" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K169" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L169" s="1"/>
       <c r="M169" s="1">
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="Q169" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R169" s="1">
         <v>0</v>
@@ -24910,10 +24910,10 @@
         <v>0</v>
       </c>
       <c r="W169" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X169" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y169" s="1">
         <v>0</v>
@@ -24952,7 +24952,7 @@
         <v>0</v>
       </c>
       <c r="AK169" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL169" s="1">
         <v>0</v>
@@ -24993,19 +24993,19 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C170" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D170" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E170" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F170" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G170" t="s">
         <v>157</v>
@@ -25017,10 +25017,10 @@
         <v>1803</v>
       </c>
       <c r="J170" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K170" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L170" s="1"/>
       <c r="M170" s="1">
@@ -25036,7 +25036,7 @@
         <v>0</v>
       </c>
       <c r="Q170" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R170" s="1">
         <v>0</v>
@@ -25054,10 +25054,10 @@
         <v>0</v>
       </c>
       <c r="W170" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X170" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y170" s="1">
         <v>0</v>
@@ -25096,7 +25096,7 @@
         <v>0</v>
       </c>
       <c r="AK170" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL170" s="1">
         <v>0</v>
@@ -25281,16 +25281,16 @@
         <v>41</v>
       </c>
       <c r="B172" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C172" s="1">
         <v>3345</v>
       </c>
       <c r="D172" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E172" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F172" t="s">
         <v>108</v>
@@ -25425,16 +25425,16 @@
         <v>42</v>
       </c>
       <c r="B173" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C173" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D173" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E173" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F173" t="s">
         <v>108</v>
@@ -25465,16 +25465,16 @@
         <v>0</v>
       </c>
       <c r="P173" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q173" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R173" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S173" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T173" s="1">
         <v>0</v>
@@ -25528,7 +25528,7 @@
         <v>0</v>
       </c>
       <c r="AK173" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL173" s="1">
         <v>0</v>
@@ -25569,19 +25569,19 @@
         <v>42</v>
       </c>
       <c r="B174" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C174" s="1">
-        <v>33741</v>
+        <v>5707</v>
       </c>
       <c r="D174" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E174" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F174" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G174" t="s">
         <v>157</v>
@@ -25593,10 +25593,10 @@
         <v>1809</v>
       </c>
       <c r="J174" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K174" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L174" s="1"/>
       <c r="M174" s="1">
@@ -25615,10 +25615,10 @@
         <v>0</v>
       </c>
       <c r="R174" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S174" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T174" s="1">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="AC174" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD174" s="1">
         <v>0</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="AK174" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL174" s="1">
         <v>0</v>
@@ -25713,16 +25713,16 @@
         <v>42</v>
       </c>
       <c r="B175" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C175" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D175" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E175" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F175" t="s">
         <v>108</v>
@@ -25753,10 +25753,10 @@
         <v>0</v>
       </c>
       <c r="P175" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q175" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R175" s="1">
         <v>0</v>
@@ -25816,7 +25816,7 @@
         <v>0</v>
       </c>
       <c r="AK175" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL175" s="1">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="AS175" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT175" s="1">
         <v>0</v>
@@ -25857,19 +25857,19 @@
         <v>42</v>
       </c>
       <c r="B176" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C176" s="1">
-        <v>88890</v>
+        <v>33741</v>
       </c>
       <c r="D176" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E176" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F176" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G176" t="s">
         <v>157</v>
@@ -25881,10 +25881,10 @@
         <v>1809</v>
       </c>
       <c r="J176" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K176" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L176" s="1"/>
       <c r="M176" s="1">
@@ -25936,7 +25936,7 @@
         <v>0</v>
       </c>
       <c r="AC176" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD176" s="1">
         <v>0</v>
@@ -25960,7 +25960,7 @@
         <v>0</v>
       </c>
       <c r="AK176" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL176" s="1">
         <v>0</v>
@@ -25984,7 +25984,7 @@
         <v>0</v>
       </c>
       <c r="AS176" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT176" s="1">
         <v>0</v>
@@ -26001,16 +26001,16 @@
         <v>43</v>
       </c>
       <c r="B177" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C177" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D177" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E177" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F177" t="s">
         <v>108</v>
@@ -26047,10 +26047,10 @@
         <v>0</v>
       </c>
       <c r="R177" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S177" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T177" s="1">
         <v>0</v>
@@ -26128,7 +26128,7 @@
         <v>0</v>
       </c>
       <c r="AS177" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT177" s="1">
         <v>0</v>
@@ -26148,7 +26148,7 @@
         <v>71</v>
       </c>
       <c r="C178" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D178" t="s">
         <v>107</v>
@@ -26191,10 +26191,10 @@
         <v>0</v>
       </c>
       <c r="R178" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S178" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T178" s="1">
         <v>0</v>
@@ -26272,7 +26272,7 @@
         <v>0</v>
       </c>
       <c r="AS178" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT178" s="1">
         <v>0</v>
@@ -26289,16 +26289,16 @@
         <v>43</v>
       </c>
       <c r="B179" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C179" s="1">
         <v>3345</v>
       </c>
       <c r="D179" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E179" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F179" t="s">
         <v>108</v>
@@ -26433,19 +26433,19 @@
         <v>44</v>
       </c>
       <c r="B180" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C180" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D180" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E180" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F180" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G180" t="s">
         <v>157</v>
@@ -26457,10 +26457,10 @@
         <v>1812</v>
       </c>
       <c r="J180" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K180" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L180" s="1"/>
       <c r="M180" s="1">
@@ -26473,10 +26473,10 @@
         <v>0</v>
       </c>
       <c r="P180" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q180" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R180" s="1">
         <v>0</v>
@@ -26577,19 +26577,19 @@
         <v>44</v>
       </c>
       <c r="B181" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C181" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D181" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E181" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F181" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G181" t="s">
         <v>157</v>
@@ -26601,10 +26601,10 @@
         <v>1812</v>
       </c>
       <c r="J181" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K181" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L181" s="1"/>
       <c r="M181" s="1">
@@ -26617,10 +26617,10 @@
         <v>0</v>
       </c>
       <c r="P181" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q181" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R181" s="1">
         <v>0</v>
@@ -26680,7 +26680,7 @@
         <v>0</v>
       </c>
       <c r="AK181" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL181" s="1">
         <v>0</v>
@@ -26704,7 +26704,7 @@
         <v>0</v>
       </c>
       <c r="AS181" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT181" s="1">
         <v>0</v>
@@ -26721,16 +26721,16 @@
         <v>44</v>
       </c>
       <c r="B182" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C182" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D182" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E182" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F182" t="s">
         <v>155</v>
@@ -26824,7 +26824,7 @@
         <v>0</v>
       </c>
       <c r="AK182" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL182" s="1">
         <v>0</v>
@@ -26848,7 +26848,7 @@
         <v>0</v>
       </c>
       <c r="AS182" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT182" s="1">
         <v>0</v>
@@ -26865,16 +26865,16 @@
         <v>44</v>
       </c>
       <c r="B183" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C183" s="1">
-        <v>5707</v>
+        <v>33741</v>
       </c>
       <c r="D183" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E183" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F183" t="s">
         <v>108</v>
@@ -26911,10 +26911,10 @@
         <v>0</v>
       </c>
       <c r="R183" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S183" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T183" s="1">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="AC183" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD183" s="1">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="AK183" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL183" s="1">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         <v>44</v>
       </c>
       <c r="B184" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C184" s="1">
-        <v>33741</v>
+        <v>5707</v>
       </c>
       <c r="D184" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E184" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F184" t="s">
         <v>108</v>
@@ -27055,10 +27055,10 @@
         <v>0</v>
       </c>
       <c r="R184" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S184" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T184" s="1">
         <v>0</v>
@@ -27088,7 +27088,7 @@
         <v>0</v>
       </c>
       <c r="AC184" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD184" s="1">
         <v>0</v>
@@ -27112,7 +27112,7 @@
         <v>0</v>
       </c>
       <c r="AK184" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL184" s="1">
         <v>0</v>
@@ -27153,16 +27153,16 @@
         <v>45</v>
       </c>
       <c r="B185" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C185" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D185" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E185" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F185" t="s">
         <v>108</v>
@@ -27193,16 +27193,16 @@
         <v>0</v>
       </c>
       <c r="P185" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q185" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R185" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S185" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T185" s="1">
         <v>0</v>
@@ -27256,7 +27256,7 @@
         <v>0</v>
       </c>
       <c r="AK185" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL185" s="1">
         <v>0</v>
@@ -27297,16 +27297,16 @@
         <v>45</v>
       </c>
       <c r="B186" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C186" s="1">
         <v>88890</v>
       </c>
       <c r="D186" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E186" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F186" t="s">
         <v>108</v>
@@ -27441,16 +27441,16 @@
         <v>45</v>
       </c>
       <c r="B187" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C187" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D187" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E187" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F187" t="s">
         <v>108</v>
@@ -27481,16 +27481,16 @@
         <v>0</v>
       </c>
       <c r="P187" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q187" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R187" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S187" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T187" s="1">
         <v>0</v>
@@ -27544,7 +27544,7 @@
         <v>0</v>
       </c>
       <c r="AK187" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL187" s="1">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>46</v>
       </c>
       <c r="B188" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C188" s="1">
         <v>88890</v>
       </c>
       <c r="D188" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E188" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F188" t="s">
         <v>155</v>
@@ -27729,16 +27729,16 @@
         <v>46</v>
       </c>
       <c r="B189" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C189" s="1">
         <v>3345</v>
       </c>
       <c r="D189" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E189" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F189" t="s">
         <v>108</v>
@@ -27873,16 +27873,16 @@
         <v>46</v>
       </c>
       <c r="B190" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C190" s="1">
         <v>5707</v>
       </c>
       <c r="D190" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E190" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F190" t="s">
         <v>108</v>
@@ -28020,7 +28020,7 @@
         <v>69</v>
       </c>
       <c r="C191" s="1">
-        <v>62300</v>
+        <v>5707</v>
       </c>
       <c r="D191" t="s">
         <v>105</v>
@@ -28029,7 +28029,7 @@
         <v>134</v>
       </c>
       <c r="F191" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G191" t="s">
         <v>157</v>
@@ -28038,13 +28038,13 @@
         <v>45369</v>
       </c>
       <c r="I191" s="1">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="J191" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K191" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L191" s="1"/>
       <c r="M191" s="1">
@@ -28063,10 +28063,10 @@
         <v>0</v>
       </c>
       <c r="R191" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S191" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T191" s="1">
         <v>0</v>
@@ -28120,7 +28120,7 @@
         <v>0</v>
       </c>
       <c r="AK191" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL191" s="1">
         <v>0</v>
@@ -28161,16 +28161,16 @@
         <v>47</v>
       </c>
       <c r="B192" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C192" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D192" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E192" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F192" t="s">
         <v>108</v>
@@ -28182,7 +28182,7 @@
         <v>45369</v>
       </c>
       <c r="I192" s="1">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="J192" s="1">
         <v>1</v>
@@ -28201,16 +28201,16 @@
         <v>0</v>
       </c>
       <c r="P192" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q192" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R192" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S192" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T192" s="1">
         <v>0</v>
@@ -28264,7 +28264,7 @@
         <v>0</v>
       </c>
       <c r="AK192" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL192" s="1">
         <v>0</v>
@@ -28305,19 +28305,19 @@
         <v>47</v>
       </c>
       <c r="B193" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C193" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D193" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E193" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F193" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G193" t="s">
         <v>157</v>
@@ -28326,13 +28326,13 @@
         <v>45369</v>
       </c>
       <c r="I193" s="1">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="J193" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K193" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L193" s="1"/>
       <c r="M193" s="1">
@@ -28345,10 +28345,10 @@
         <v>0</v>
       </c>
       <c r="P193" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q193" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R193" s="1">
         <v>0</v>
@@ -28449,16 +28449,16 @@
         <v>47</v>
       </c>
       <c r="B194" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C194" s="1">
         <v>446220</v>
       </c>
       <c r="D194" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E194" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F194" t="s">
         <v>155</v>
@@ -28470,7 +28470,7 @@
         <v>45369</v>
       </c>
       <c r="I194" s="1">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="J194" s="1">
         <v>0</v>
@@ -28593,16 +28593,16 @@
         <v>47</v>
       </c>
       <c r="B195" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C195" s="1">
         <v>88890</v>
       </c>
       <c r="D195" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E195" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F195" t="s">
         <v>108</v>
@@ -28614,7 +28614,7 @@
         <v>45369</v>
       </c>
       <c r="I195" s="1">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="J195" s="1">
         <v>1</v>
@@ -28737,16 +28737,16 @@
         <v>48</v>
       </c>
       <c r="B196" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C196" s="1">
         <v>5707</v>
       </c>
       <c r="D196" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E196" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F196" t="s">
         <v>108</v>
@@ -28758,7 +28758,7 @@
         <v>45370</v>
       </c>
       <c r="I196" s="1">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="J196" s="1">
         <v>1</v>
@@ -28881,16 +28881,16 @@
         <v>48</v>
       </c>
       <c r="B197" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C197" s="1">
         <v>88890</v>
       </c>
       <c r="D197" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E197" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F197" t="s">
         <v>108</v>
@@ -28902,7 +28902,7 @@
         <v>45370</v>
       </c>
       <c r="I197" s="1">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="J197" s="1">
         <v>1</v>
@@ -29025,16 +29025,16 @@
         <v>48</v>
       </c>
       <c r="B198" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C198" s="1">
         <v>3345</v>
       </c>
       <c r="D198" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E198" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F198" t="s">
         <v>108</v>
@@ -29046,7 +29046,7 @@
         <v>45370</v>
       </c>
       <c r="I198" s="1">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="J198" s="1">
         <v>1</v>
@@ -29169,16 +29169,16 @@
         <v>49</v>
       </c>
       <c r="B199" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C199" s="1">
         <v>3345</v>
       </c>
       <c r="D199" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E199" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F199" t="s">
         <v>108</v>
@@ -29190,7 +29190,7 @@
         <v>45336</v>
       </c>
       <c r="I199" s="1">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="J199" s="1">
         <v>1</v>
@@ -29313,16 +29313,16 @@
         <v>49</v>
       </c>
       <c r="B200" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C200" s="1">
         <v>5707</v>
       </c>
       <c r="D200" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E200" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F200" t="s">
         <v>108</v>
@@ -29334,7 +29334,7 @@
         <v>45336</v>
       </c>
       <c r="I200" s="1">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="J200" s="1">
         <v>1</v>
@@ -29457,16 +29457,16 @@
         <v>50</v>
       </c>
       <c r="B201" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C201" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D201" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E201" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F201" t="s">
         <v>155</v>
@@ -29478,7 +29478,7 @@
         <v>45370</v>
       </c>
       <c r="I201" s="1">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="J201" s="1">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="AP201" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ201" s="1">
         <v>0</v>
@@ -29584,7 +29584,7 @@
         <v>0</v>
       </c>
       <c r="AS201" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT201" s="1">
         <v>0</v>
@@ -29604,7 +29604,7 @@
         <v>71</v>
       </c>
       <c r="C202" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D202" t="s">
         <v>107</v>
@@ -29613,7 +29613,7 @@
         <v>136</v>
       </c>
       <c r="F202" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G202" t="s">
         <v>157</v>
@@ -29622,13 +29622,13 @@
         <v>45370</v>
       </c>
       <c r="I202" s="1">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="J202" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K202" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L202" s="1"/>
       <c r="M202" s="1">
@@ -29647,10 +29647,10 @@
         <v>0</v>
       </c>
       <c r="R202" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S202" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T202" s="1">
         <v>0</v>
@@ -29728,7 +29728,7 @@
         <v>0</v>
       </c>
       <c r="AS202" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT202" s="1">
         <v>0</v>
@@ -29745,19 +29745,19 @@
         <v>50</v>
       </c>
       <c r="B203" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C203" s="1">
-        <v>2519</v>
+        <v>5707</v>
       </c>
       <c r="D203" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E203" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F203" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G203" t="s">
         <v>157</v>
@@ -29766,13 +29766,13 @@
         <v>45370</v>
       </c>
       <c r="I203" s="1">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="J203" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K203" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L203" s="1"/>
       <c r="M203" s="1">
@@ -29791,10 +29791,10 @@
         <v>0</v>
       </c>
       <c r="R203" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S203" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T203" s="1">
         <v>0</v>
@@ -29863,7 +29863,7 @@
         <v>0</v>
       </c>
       <c r="AP203" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ203" s="1">
         <v>0</v>
@@ -29889,16 +29889,16 @@
         <v>50</v>
       </c>
       <c r="B204" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C204" s="1">
         <v>3345</v>
       </c>
       <c r="D204" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E204" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F204" t="s">
         <v>155</v>
@@ -29910,7 +29910,7 @@
         <v>45370</v>
       </c>
       <c r="I204" s="1">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="J204" s="1">
         <v>0</v>
@@ -30033,7 +30033,7 @@
         <v>51</v>
       </c>
       <c r="B205" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C205" s="1">
         <v>2519</v>
@@ -30054,7 +30054,7 @@
         <v>45317</v>
       </c>
       <c r="I205" s="1">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="J205" s="1">
         <v>0</v>
@@ -30177,19 +30177,19 @@
         <v>51</v>
       </c>
       <c r="B206" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C206" s="1">
-        <v>637578</v>
+        <v>446220</v>
       </c>
       <c r="D206" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E206" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F206" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G206" t="s">
         <v>157</v>
@@ -30198,13 +30198,13 @@
         <v>45317</v>
       </c>
       <c r="I206" s="1">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="J206" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K206" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L206" s="1"/>
       <c r="M206" s="1">
@@ -30238,10 +30238,10 @@
         <v>0</v>
       </c>
       <c r="W206" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X206" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y206" s="1">
         <v>0</v>
@@ -30292,7 +30292,7 @@
         <v>0</v>
       </c>
       <c r="AO206" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP206" s="1">
         <v>0</v>
@@ -30321,19 +30321,19 @@
         <v>51</v>
       </c>
       <c r="B207" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C207" s="1">
-        <v>446220</v>
+        <v>637578</v>
       </c>
       <c r="D207" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E207" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F207" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G207" t="s">
         <v>157</v>
@@ -30342,13 +30342,13 @@
         <v>45317</v>
       </c>
       <c r="I207" s="1">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="J207" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K207" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L207" s="1"/>
       <c r="M207" s="1">
@@ -30382,10 +30382,10 @@
         <v>0</v>
       </c>
       <c r="W207" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X207" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y207" s="1">
         <v>0</v>
@@ -30436,7 +30436,7 @@
         <v>0</v>
       </c>
       <c r="AO207" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP207" s="1">
         <v>0</v>
@@ -30465,19 +30465,19 @@
         <v>52</v>
       </c>
       <c r="B208" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C208" s="1">
-        <v>88890</v>
+        <v>62300</v>
       </c>
       <c r="D208" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E208" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F208" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G208" t="s">
         <v>157</v>
@@ -30486,13 +30486,13 @@
         <v>45369</v>
       </c>
       <c r="I208" s="1">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="J208" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K208" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L208" s="1"/>
       <c r="M208" s="1">
@@ -30568,7 +30568,7 @@
         <v>0</v>
       </c>
       <c r="AK208" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL208" s="1">
         <v>0</v>
@@ -30592,7 +30592,7 @@
         <v>0</v>
       </c>
       <c r="AS208" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT208" s="1">
         <v>0</v>
@@ -30609,16 +30609,16 @@
         <v>52</v>
       </c>
       <c r="B209" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C209" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D209" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E209" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F209" t="s">
         <v>108</v>
@@ -30630,7 +30630,7 @@
         <v>45369</v>
       </c>
       <c r="I209" s="1">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="J209" s="1">
         <v>1</v>
@@ -30649,16 +30649,16 @@
         <v>0</v>
       </c>
       <c r="P209" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q209" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R209" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S209" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T209" s="1">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="AK209" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL209" s="1">
         <v>0</v>
@@ -30753,19 +30753,19 @@
         <v>52</v>
       </c>
       <c r="B210" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C210" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D210" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E210" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F210" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G210" t="s">
         <v>157</v>
@@ -30774,13 +30774,13 @@
         <v>45369</v>
       </c>
       <c r="I210" s="1">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="J210" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K210" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L210" s="1"/>
       <c r="M210" s="1">
@@ -30856,7 +30856,7 @@
         <v>0</v>
       </c>
       <c r="AK210" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL210" s="1">
         <v>0</v>
@@ -30880,7 +30880,7 @@
         <v>0</v>
       </c>
       <c r="AS210" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT210" s="1">
         <v>0</v>
@@ -30897,16 +30897,16 @@
         <v>52</v>
       </c>
       <c r="B211" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C211" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D211" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E211" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F211" t="s">
         <v>108</v>
@@ -30918,7 +30918,7 @@
         <v>45369</v>
       </c>
       <c r="I211" s="1">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="J211" s="1">
         <v>1</v>
@@ -30937,16 +30937,16 @@
         <v>0</v>
       </c>
       <c r="P211" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q211" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R211" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S211" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T211" s="1">
         <v>0</v>
@@ -31000,7 +31000,7 @@
         <v>0</v>
       </c>
       <c r="AK211" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL211" s="1">
         <v>0</v>
@@ -31062,7 +31062,7 @@
         <v>45364</v>
       </c>
       <c r="I212" s="1">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="J212" s="1">
         <v>1</v>
@@ -31206,7 +31206,7 @@
         <v>45364</v>
       </c>
       <c r="I213" s="1">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="J213" s="1">
         <v>1</v>
@@ -31329,16 +31329,16 @@
         <v>54</v>
       </c>
       <c r="B214" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C214" s="1">
         <v>3345</v>
       </c>
       <c r="D214" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E214" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F214" t="s">
         <v>108</v>
@@ -31350,7 +31350,7 @@
         <v>45317</v>
       </c>
       <c r="I214" s="1">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="J214" s="1">
         <v>1</v>
@@ -31473,16 +31473,16 @@
         <v>54</v>
       </c>
       <c r="B215" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C215" s="1">
         <v>5707</v>
       </c>
       <c r="D215" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E215" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F215" t="s">
         <v>108</v>
@@ -31494,7 +31494,7 @@
         <v>45317</v>
       </c>
       <c r="I215" s="1">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="J215" s="1">
         <v>1</v>
@@ -31617,16 +31617,16 @@
         <v>55</v>
       </c>
       <c r="B216" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C216" s="1">
-        <v>2519</v>
+        <v>5707</v>
       </c>
       <c r="D216" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E216" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F216" t="s">
         <v>108</v>
@@ -31638,7 +31638,7 @@
         <v>45336</v>
       </c>
       <c r="I216" s="1">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="J216" s="1">
         <v>1</v>
@@ -31663,10 +31663,10 @@
         <v>0</v>
       </c>
       <c r="R216" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S216" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T216" s="1">
         <v>0</v>
@@ -31684,7 +31684,7 @@
         <v>0</v>
       </c>
       <c r="Y216" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z216" s="1">
         <v>0</v>
@@ -31735,7 +31735,7 @@
         <v>0</v>
       </c>
       <c r="AP216" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ216" s="1">
         <v>0</v>
@@ -31761,19 +31761,19 @@
         <v>55</v>
       </c>
       <c r="B217" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C217" s="1">
-        <v>156346345</v>
+        <v>2519</v>
       </c>
       <c r="D217" t="s">
+        <v>114</v>
+      </c>
+      <c r="E217" t="s">
+        <v>142</v>
+      </c>
+      <c r="F217" t="s">
         <v>108</v>
-      </c>
-      <c r="E217" t="s">
-        <v>108</v>
-      </c>
-      <c r="F217" t="s">
-        <v>155</v>
       </c>
       <c r="G217" t="s">
         <v>157</v>
@@ -31782,13 +31782,13 @@
         <v>45336</v>
       </c>
       <c r="I217" s="1">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="J217" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K217" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L217" s="1"/>
       <c r="M217" s="1">
@@ -31828,7 +31828,7 @@
         <v>0</v>
       </c>
       <c r="Y217" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z217" s="1">
         <v>0</v>
@@ -31879,7 +31879,7 @@
         <v>0</v>
       </c>
       <c r="AP217" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ217" s="1">
         <v>0</v>
@@ -31888,7 +31888,7 @@
         <v>0</v>
       </c>
       <c r="AS217" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT217" s="1">
         <v>0</v>
@@ -31905,16 +31905,16 @@
         <v>55</v>
       </c>
       <c r="B218" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C218" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D218" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E218" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F218" t="s">
         <v>108</v>
@@ -31926,7 +31926,7 @@
         <v>45336</v>
       </c>
       <c r="I218" s="1">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="J218" s="1">
         <v>1</v>
@@ -31945,16 +31945,16 @@
         <v>0</v>
       </c>
       <c r="P218" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q218" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R218" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S218" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T218" s="1">
         <v>0</v>
@@ -32008,7 +32008,7 @@
         <v>0</v>
       </c>
       <c r="AK218" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL218" s="1">
         <v>0</v>
@@ -32049,16 +32049,16 @@
         <v>55</v>
       </c>
       <c r="B219" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C219" s="1">
         <v>88890</v>
       </c>
       <c r="D219" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E219" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F219" t="s">
         <v>108</v>
@@ -32070,7 +32070,7 @@
         <v>45336</v>
       </c>
       <c r="I219" s="1">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="J219" s="1">
         <v>1</v>
@@ -32193,19 +32193,19 @@
         <v>55</v>
       </c>
       <c r="B220" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C220" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D220" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E220" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="F220" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G220" t="s">
         <v>157</v>
@@ -32214,13 +32214,13 @@
         <v>45336</v>
       </c>
       <c r="I220" s="1">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="J220" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K220" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L220" s="1"/>
       <c r="M220" s="1">
@@ -32233,10 +32233,10 @@
         <v>0</v>
       </c>
       <c r="P220" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q220" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R220" s="1">
         <v>0</v>
@@ -32296,7 +32296,7 @@
         <v>0</v>
       </c>
       <c r="AK220" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL220" s="1">
         <v>0</v>
@@ -32320,7 +32320,7 @@
         <v>0</v>
       </c>
       <c r="AS220" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT220" s="1">
         <v>0</v>
@@ -32337,16 +32337,16 @@
         <v>56</v>
       </c>
       <c r="B221" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C221" s="1">
         <v>88890</v>
       </c>
       <c r="D221" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E221" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F221" t="s">
         <v>108</v>
@@ -32358,7 +32358,7 @@
         <v>45399</v>
       </c>
       <c r="I221" s="1">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="J221" s="1">
         <v>1</v>
@@ -32481,16 +32481,16 @@
         <v>56</v>
       </c>
       <c r="B222" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C222" s="1">
         <v>3345</v>
       </c>
       <c r="D222" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E222" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F222" t="s">
         <v>108</v>
@@ -32502,7 +32502,7 @@
         <v>45399</v>
       </c>
       <c r="I222" s="1">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="J222" s="1">
         <v>1</v>
@@ -32625,16 +32625,16 @@
         <v>57</v>
       </c>
       <c r="B223" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C223" s="1">
         <v>3345</v>
       </c>
       <c r="D223" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E223" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F223" t="s">
         <v>155</v>
@@ -32646,7 +32646,7 @@
         <v>45394</v>
       </c>
       <c r="I223" s="1">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="J223" s="1">
         <v>0</v>
@@ -32769,16 +32769,16 @@
         <v>57</v>
       </c>
       <c r="B224" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C224" s="1">
         <v>5707</v>
       </c>
       <c r="D224" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E224" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F224" t="s">
         <v>108</v>
@@ -32790,7 +32790,7 @@
         <v>45394</v>
       </c>
       <c r="I224" s="1">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="J224" s="1">
         <v>1</v>
@@ -32913,16 +32913,16 @@
         <v>58</v>
       </c>
       <c r="B225" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C225" s="1">
         <v>88890</v>
       </c>
       <c r="D225" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E225" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F225" t="s">
         <v>108</v>
@@ -32934,7 +32934,7 @@
         <v>45394</v>
       </c>
       <c r="I225" s="1">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="J225" s="1">
         <v>1</v>
@@ -33057,16 +33057,16 @@
         <v>58</v>
       </c>
       <c r="B226" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C226" s="1">
         <v>3345</v>
       </c>
       <c r="D226" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E226" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F226" t="s">
         <v>108</v>
@@ -33078,7 +33078,7 @@
         <v>45394</v>
       </c>
       <c r="I226" s="1">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="J226" s="1">
         <v>1</v>
@@ -33201,16 +33201,16 @@
         <v>58</v>
       </c>
       <c r="B227" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C227" s="1">
         <v>5707</v>
       </c>
       <c r="D227" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E227" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F227" t="s">
         <v>108</v>
@@ -33222,7 +33222,7 @@
         <v>45394</v>
       </c>
       <c r="I227" s="1">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="J227" s="1">
         <v>1</v>
@@ -33345,16 +33345,16 @@
         <v>58</v>
       </c>
       <c r="B228" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C228" s="1">
         <v>62300</v>
       </c>
       <c r="D228" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E228" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F228" t="s">
         <v>155</v>
@@ -33366,7 +33366,7 @@
         <v>45394</v>
       </c>
       <c r="I228" s="1">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="J228" s="1">
         <v>0</v>
@@ -33489,16 +33489,16 @@
         <v>59</v>
       </c>
       <c r="B229" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C229" s="1">
         <v>88890</v>
       </c>
       <c r="D229" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E229" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F229" t="s">
         <v>108</v>
@@ -33510,7 +33510,7 @@
         <v>45394</v>
       </c>
       <c r="I229" s="1">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="J229" s="1">
         <v>1</v>
@@ -33633,16 +33633,16 @@
         <v>59</v>
       </c>
       <c r="B230" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C230" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D230" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E230" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F230" t="s">
         <v>108</v>
@@ -33654,7 +33654,7 @@
         <v>45394</v>
       </c>
       <c r="I230" s="1">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="J230" s="1">
         <v>1</v>
@@ -33673,16 +33673,16 @@
         <v>0</v>
       </c>
       <c r="P230" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q230" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R230" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S230" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T230" s="1">
         <v>0</v>
@@ -33736,7 +33736,7 @@
         <v>0</v>
       </c>
       <c r="AK230" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL230" s="1">
         <v>0</v>
@@ -33777,16 +33777,16 @@
         <v>59</v>
       </c>
       <c r="B231" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C231" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D231" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E231" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F231" t="s">
         <v>108</v>
@@ -33798,7 +33798,7 @@
         <v>45394</v>
       </c>
       <c r="I231" s="1">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="J231" s="1">
         <v>1</v>
@@ -33817,16 +33817,16 @@
         <v>0</v>
       </c>
       <c r="P231" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q231" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R231" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S231" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T231" s="1">
         <v>0</v>
@@ -33880,7 +33880,7 @@
         <v>0</v>
       </c>
       <c r="AK231" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL231" s="1">
         <v>0</v>
@@ -33921,16 +33921,16 @@
         <v>60</v>
       </c>
       <c r="B232" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C232" s="1">
         <v>3345</v>
       </c>
       <c r="D232" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E232" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F232" t="s">
         <v>155</v>
@@ -33942,7 +33942,7 @@
         <v>45399</v>
       </c>
       <c r="I232" s="1">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="J232" s="1">
         <v>0</v>
@@ -34086,7 +34086,7 @@
         <v>45399</v>
       </c>
       <c r="I233" s="1">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="J233" s="1">
         <v>0</v>
@@ -34209,19 +34209,19 @@
         <v>60</v>
       </c>
       <c r="B234" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C234" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D234" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E234" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F234" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G234" t="s">
         <v>157</v>
@@ -34230,13 +34230,13 @@
         <v>45399</v>
       </c>
       <c r="I234" s="1">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="J234" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K234" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L234" s="1"/>
       <c r="M234" s="1">
@@ -34255,10 +34255,10 @@
         <v>0</v>
       </c>
       <c r="R234" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S234" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T234" s="1">
         <v>0</v>
@@ -34336,7 +34336,7 @@
         <v>0</v>
       </c>
       <c r="AS234" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT234" s="1">
         <v>0</v>
@@ -34356,7 +34356,7 @@
         <v>71</v>
       </c>
       <c r="C235" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D235" t="s">
         <v>107</v>
@@ -34365,7 +34365,7 @@
         <v>136</v>
       </c>
       <c r="F235" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G235" t="s">
         <v>157</v>
@@ -34374,13 +34374,13 @@
         <v>45399</v>
       </c>
       <c r="I235" s="1">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="J235" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K235" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L235" s="1"/>
       <c r="M235" s="1">
@@ -34399,10 +34399,10 @@
         <v>0</v>
       </c>
       <c r="R235" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S235" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T235" s="1">
         <v>0</v>
@@ -34480,7 +34480,7 @@
         <v>0</v>
       </c>
       <c r="AS235" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT235" s="1">
         <v>0</v>

--- a/datasets/selfservice/AC/lab_detail.xlsx
+++ b/datasets/selfservice/AC/lab_detail.xlsx
@@ -207,16 +207,16 @@
     <t>substance</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
     <t>tramadol</t>
   </si>
   <si>
     <t>melatonin</t>
   </si>
   <si>
-    <t>heroin</t>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
   </si>
   <si>
     <t>cocaine</t>
@@ -225,10 +225,13 @@
     <t>procaine</t>
   </si>
   <si>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
+    <t>heroin</t>
   </si>
   <si>
     <t>lidocaine</t>
@@ -237,19 +240,13 @@
     <t>p-fluorofentanyl</t>
   </si>
   <si>
-    <t>fentanyl</t>
+    <t>quinine</t>
   </si>
   <si>
     <t>diphenhydramine</t>
   </si>
   <si>
-    <t>quinine</t>
-  </si>
-  <si>
     <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>norcocaine</t>
   </si>
   <si>
     <t>tropacocaine</t>
@@ -258,10 +255,13 @@
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>dextromethorphan</t>
+    <t>norcocaine</t>
   </si>
   <si>
     <t>caffeine</t>
+  </si>
+  <si>
+    <t>dextromethorphan</t>
   </si>
   <si>
     <t>bromazolam</t>
@@ -282,16 +282,16 @@
     <t>ketamine</t>
   </si>
   <si>
-    <t>phenacetin</t>
+    <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
-    <t>aspirin</t>
+    <t>phenacetin</t>
   </si>
   <si>
     <t>salicylic acid</t>
   </si>
   <si>
-    <t>despropionyl p-fluorofentanyl</t>
+    <t>aspirin</t>
   </si>
   <si>
     <t>trazodone</t>
@@ -300,10 +300,10 @@
     <t>4-Anilino-1-Boc-piperidine</t>
   </si>
   <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+    <t>methamphetamine</t>
   </si>
   <si>
-    <t>methamphetamine</t>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
     <t>benzocaine</t>
@@ -315,16 +315,16 @@
     <t>cas</t>
   </si>
   <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
     <t>123154-38-1</t>
   </si>
   <si>
     <t>73-31-4</t>
   </si>
   <si>
-    <t>561-27-3</t>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
   </si>
   <si>
     <t>50-36-2</t>
@@ -333,10 +333,13 @@
     <t>59-46-1</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>21409-26-7</t>
   </si>
   <si>
-    <t/>
+    <t>561-27-3</t>
   </si>
   <si>
     <t>137-58-6</t>
@@ -345,22 +348,19 @@
     <t>90736-23-5</t>
   </si>
   <si>
-    <t>437-38-7</t>
+    <t>72402-53-0</t>
   </si>
   <si>
     <t>58-73-1</t>
-  </si>
-  <si>
-    <t>72402-53-0</t>
-  </si>
-  <si>
-    <t>18717-72-1</t>
   </si>
   <si>
     <t>537-26-8</t>
   </si>
   <si>
     <t>43021-26-7</t>
+  </si>
+  <si>
+    <t>18717-72-1</t>
   </si>
   <si>
     <t>58-08-2</t>
@@ -378,22 +378,22 @@
     <t>6740-88-1</t>
   </si>
   <si>
+    <t>122861-41-0</t>
+  </si>
+  <si>
     <t>62-44-2</t>
+  </si>
+  <si>
+    <t>69-72-7</t>
   </si>
   <si>
     <t>50-78-2</t>
   </si>
   <si>
-    <t>69-72-7</t>
-  </si>
-  <si>
-    <t>122861-41-0</t>
+    <t>537-46-2</t>
   </si>
   <si>
     <t>67-71-0</t>
-  </si>
-  <si>
-    <t>537-46-2</t>
   </si>
   <si>
     <t>94-09-7</t>
@@ -402,16 +402,16 @@
     <t>unii</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
     <t>39J1LGJ30J</t>
   </si>
   <si>
     <t>JL5DK93RCL</t>
   </si>
   <si>
-    <t>70D95007SX</t>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
   </si>
   <si>
     <t>I5Y540LHVR</t>
@@ -423,28 +423,28 @@
     <t>Q88EHD0U8G</t>
   </si>
   <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
     <t>98PI200987</t>
   </si>
   <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
+    <t>A7V27PHC7A</t>
   </si>
   <si>
     <t>8GTS82S83M</t>
-  </si>
-  <si>
-    <t>A7V27PHC7A</t>
-  </si>
-  <si>
-    <t>3SL7BR2M1E</t>
   </si>
   <si>
     <t>1I92X32F6H</t>
   </si>
   <si>
     <t>58C337KP3E</t>
+  </si>
+  <si>
+    <t>3SL7BR2M1E</t>
   </si>
   <si>
     <t>3G6A5W338E</t>
@@ -462,22 +462,22 @@
     <t>690G0D6V8H</t>
   </si>
   <si>
+    <t>R8ZH1EQ95Y</t>
+  </si>
+  <si>
     <t>ER0CTH01H9</t>
+  </si>
+  <si>
+    <t>O414PZ4LPZ</t>
   </si>
   <si>
     <t>R16CO5Y76E</t>
   </si>
   <si>
-    <t>O414PZ4LPZ</t>
-  </si>
-  <si>
-    <t>R8ZH1EQ95Y</t>
+    <t>44RAL3456C</t>
   </si>
   <si>
     <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
-    <t>44RAL3456C</t>
   </si>
   <si>
     <t>U3RSY48JW5</t>
@@ -820,7 +820,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="1">
-        <v>5707</v>
+        <v>33741</v>
       </c>
       <c r="D2" t="s">
         <v>100</v>
@@ -829,7 +829,7 @@
         <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G2" t="s">
         <v>159</v>
@@ -841,10 +841,10 @@
         <v>767</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1">
@@ -863,10 +863,10 @@
         <v>0</v>
       </c>
       <c r="R2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" s="1">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="1">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2" s="1">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="1">
-        <v>33741</v>
+        <v>896</v>
       </c>
       <c r="D3" t="s">
         <v>101</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="1">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>66</v>
       </c>
       <c r="C4" s="1">
-        <v>896</v>
+        <v>5707</v>
       </c>
       <c r="D4" t="s">
         <v>102</v>
@@ -1117,7 +1117,7 @@
         <v>131</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G4" t="s">
         <v>159</v>
@@ -1129,10 +1129,10 @@
         <v>767</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="1">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>67</v>
       </c>
       <c r="C5" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D5" t="s">
         <v>103</v>
@@ -1261,7 +1261,7 @@
         <v>132</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G5" t="s">
         <v>159</v>
@@ -1273,10 +1273,10 @@
         <v>767</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1289,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1684,16 +1684,16 @@
         <v>70</v>
       </c>
       <c r="C8" s="1">
-        <v>88890</v>
+        <v>156346345</v>
       </c>
       <c r="D8" t="s">
         <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G8" t="s">
         <v>159</v>
@@ -1705,10 +1705,10 @@
         <v>767</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1828,16 +1828,16 @@
         <v>71</v>
       </c>
       <c r="C9" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D9" t="s">
         <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F9" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
         <v>159</v>
@@ -1849,10 +1849,10 @@
         <v>767</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1972,7 +1972,7 @@
         <v>72</v>
       </c>
       <c r="C10" s="1">
-        <v>3676</v>
+        <v>5462328</v>
       </c>
       <c r="D10" t="s">
         <v>108</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10" s="1">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="AP10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ10" s="1">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>73</v>
       </c>
       <c r="C11" s="1">
-        <v>62300</v>
+        <v>3676</v>
       </c>
       <c r="D11" t="s">
         <v>109</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="1">
         <v>0</v>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="AP11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ11" s="1">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>74</v>
       </c>
       <c r="C12" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D12" t="s">
         <v>110</v>
@@ -2269,7 +2269,7 @@
         <v>138</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G12" t="s">
         <v>159</v>
@@ -2281,10 +2281,10 @@
         <v>767</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1">
@@ -2297,10 +2297,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
@@ -2401,19 +2401,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F13" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
         <v>159</v>
@@ -2425,10 +2425,10 @@
         <v>773</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT13" s="1">
         <v>0</v>
@@ -2548,7 +2548,7 @@
         <v>75</v>
       </c>
       <c r="C14" s="1">
-        <v>3100</v>
+        <v>3034034</v>
       </c>
       <c r="D14" t="s">
         <v>111</v>
@@ -2557,7 +2557,7 @@
         <v>139</v>
       </c>
       <c r="F14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G14" t="s">
         <v>159</v>
@@ -2689,19 +2689,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1">
-        <v>3034034</v>
+        <v>3345</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
         <v>159</v>
@@ -2713,10 +2713,10 @@
         <v>773</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="AP15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="1">
         <v>0</v>
@@ -2833,19 +2833,19 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C16" s="1">
-        <v>5707</v>
+        <v>3100</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G16" t="s">
         <v>159</v>
@@ -2857,10 +2857,10 @@
         <v>773</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -2882,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>0</v>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16" s="1">
         <v>0</v>
@@ -2977,19 +2977,19 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C17" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G17" t="s">
         <v>159</v>
@@ -3001,10 +3001,10 @@
         <v>773</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3026,10 +3026,10 @@
         <v>0</v>
       </c>
       <c r="S17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="1">
         <v>0</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>0</v>
@@ -3121,19 +3121,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G18" t="s">
         <v>159</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="1">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="1">
         <v>0</v>
@@ -3265,19 +3265,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C19" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" t="s">
         <v>106</v>
-      </c>
-      <c r="E19" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" t="s">
-        <v>107</v>
       </c>
       <c r="G19" t="s">
         <v>159</v>
@@ -3305,10 +3305,10 @@
         <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="1">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="1">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3409,19 +3409,19 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C20" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D20" t="s">
         <v>106</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G20" t="s">
         <v>159</v>
@@ -3433,10 +3433,10 @@
         <v>780</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3553,19 +3553,19 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="F21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G21" t="s">
         <v>159</v>
@@ -3593,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="1">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="1">
         <v>0</v>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="1">
         <v>0</v>
@@ -3697,19 +3697,19 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G22" t="s">
         <v>159</v>
@@ -3737,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="1">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>0</v>
@@ -3841,19 +3841,19 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C23" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D23" t="s">
         <v>107</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F23" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G23" t="s">
         <v>159</v>
@@ -3865,10 +3865,10 @@
         <v>780</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
@@ -3985,19 +3985,19 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1">
-        <v>644007</v>
+        <v>446220</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E24" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F24" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G24" t="s">
         <v>159</v>
@@ -4009,10 +4009,10 @@
         <v>812</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -4046,10 +4046,10 @@
         <v>0</v>
       </c>
       <c r="W24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="1">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP24" s="1">
         <v>0</v>
@@ -4129,16 +4129,16 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="1">
         <v>637578</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F25" t="s">
         <v>157</v>
@@ -4273,16 +4273,16 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="1">
         <v>119478</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F26" t="s">
         <v>157</v>
@@ -4417,19 +4417,19 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C27" s="1">
-        <v>446220</v>
+        <v>644007</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="F27" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G27" t="s">
         <v>159</v>
@@ -4441,10 +4441,10 @@
         <v>812</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -4478,10 +4478,10 @@
         <v>0</v>
       </c>
       <c r="W27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="1">
         <v>0</v>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="AO27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP27" s="1">
         <v>0</v>
@@ -4561,16 +4561,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C28" s="1">
-        <v>33741</v>
+        <v>3676</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F28" t="s">
         <v>157</v>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="1">
         <v>0</v>
@@ -4664,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="1">
         <v>0</v>
@@ -4679,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="AP28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ28" s="1">
         <v>0</v>
@@ -4705,14 +4705,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5707</v>
+      </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="F29" t="s">
         <v>157</v>
@@ -4752,10 +4754,10 @@
         <v>0</v>
       </c>
       <c r="S29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="1">
         <v>0</v>
@@ -4847,16 +4849,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C30" s="1">
-        <v>2519</v>
+        <v>33741</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="F30" t="s">
         <v>157</v>
@@ -4926,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30" s="1">
         <v>0</v>
@@ -4950,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL30" s="1">
         <v>0</v>
@@ -4965,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="1">
         <v>0</v>
@@ -4991,19 +4993,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C31" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F31" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G31" t="s">
         <v>159</v>
@@ -5015,10 +5017,10 @@
         <v>1236</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -5031,19 +5033,19 @@
         <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="1">
         <v>0</v>
       </c>
       <c r="S31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="1">
         <v>0</v>
@@ -5094,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL31" s="1">
         <v>0</v>
@@ -5135,16 +5137,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C32" s="1">
-        <v>3100</v>
+        <v>2519</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E32" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F32" t="s">
         <v>157</v>
@@ -5279,16 +5281,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C33" s="1">
-        <v>446220</v>
+        <v>3100</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F33" t="s">
         <v>157</v>
@@ -5343,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="1">
         <v>0</v>
@@ -5397,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="AP33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ33" s="1">
         <v>0</v>
@@ -5423,19 +5425,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="1">
-        <v>3676</v>
+        <v>88890</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F34" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G34" t="s">
         <v>159</v>
@@ -5447,10 +5449,10 @@
         <v>1236</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5541,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="AP34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ34" s="1">
         <v>0</v>
@@ -5550,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT34" s="1">
         <v>0</v>
@@ -5567,19 +5569,17 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="1">
-        <v>3345</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C35" s="1"/>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="F35" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G35" t="s">
         <v>159</v>
@@ -5591,10 +5591,10 @@
         <v>1236</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -5607,10 +5607,10 @@
         <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="1">
         <v>0</v>
@@ -5711,19 +5711,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C36" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F36" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G36" t="s">
         <v>159</v>
@@ -5735,10 +5735,10 @@
         <v>1236</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -5775,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="1">
         <v>0</v>
@@ -5838,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="AS36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT36" s="1">
         <v>0</v>
@@ -5855,19 +5855,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C37" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" t="s">
         <v>106</v>
-      </c>
-      <c r="E37" t="s">
-        <v>135</v>
-      </c>
-      <c r="F37" t="s">
-        <v>107</v>
       </c>
       <c r="G37" t="s">
         <v>159</v>
@@ -5895,10 +5895,10 @@
         <v>0</v>
       </c>
       <c r="P37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="1">
         <v>0</v>
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="1">
         <v>0</v>
@@ -5999,16 +5999,16 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C38" s="1">
-        <v>165365057</v>
+        <v>2519</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="F38" t="s">
         <v>157</v>
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="AP38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ38" s="1">
         <v>0</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="1">
         <v>0</v>
@@ -6143,16 +6143,16 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C39" s="1">
         <v>5707</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E39" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F39" t="s">
         <v>157</v>
@@ -6287,19 +6287,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" s="1">
-        <v>3676</v>
+        <v>88890</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F40" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G40" t="s">
         <v>159</v>
@@ -6311,10 +6311,10 @@
         <v>1239</v>
       </c>
       <c r="J40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
@@ -6405,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="1">
         <v>0</v>
@@ -6414,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="AS40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT40" s="1">
         <v>0</v>
@@ -6431,16 +6431,16 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C41" s="1">
-        <v>2519</v>
+        <v>165365057</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="F41" t="s">
         <v>157</v>
@@ -6549,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="1">
         <v>0</v>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="AS41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT41" s="1">
         <v>0</v>
@@ -6575,19 +6575,19 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" s="1">
-        <v>3345</v>
+        <v>3676</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F42" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G42" t="s">
         <v>159</v>
@@ -6599,10 +6599,10 @@
         <v>1239</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -6615,10 +6615,10 @@
         <v>0</v>
       </c>
       <c r="P42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" s="1">
         <v>0</v>
@@ -6678,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="AP42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ42" s="1">
         <v>0</v>
@@ -6722,7 +6722,7 @@
         <v>66</v>
       </c>
       <c r="C43" s="1">
-        <v>896</v>
+        <v>5707</v>
       </c>
       <c r="D43" t="s">
         <v>102</v>
@@ -6768,10 +6768,10 @@
         <v>0</v>
       </c>
       <c r="S43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" s="1">
         <v>0</v>
@@ -6863,19 +6863,19 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C44" s="1">
-        <v>33741</v>
+        <v>88890</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E44" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F44" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G44" t="s">
         <v>159</v>
@@ -6887,10 +6887,10 @@
         <v>1259</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -6942,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD44" s="1">
         <v>0</v>
@@ -6966,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="AK44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44" s="1">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT44" s="1">
         <v>0</v>
@@ -7007,19 +7007,19 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C45" s="1">
-        <v>3345</v>
+        <v>33741</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E45" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F45" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G45" t="s">
         <v>159</v>
@@ -7031,10 +7031,10 @@
         <v>1259</v>
       </c>
       <c r="J45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -7047,10 +7047,10 @@
         <v>0</v>
       </c>
       <c r="P45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" s="1">
         <v>0</v>
@@ -7086,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" s="1">
         <v>0</v>
@@ -7151,16 +7151,16 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C46" s="1">
-        <v>62300</v>
+        <v>165365057</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E46" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="F46" t="s">
         <v>157</v>
@@ -7254,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="1">
         <v>0</v>
@@ -7278,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="AS46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT46" s="1">
         <v>0</v>
@@ -7295,16 +7295,16 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C47" s="1">
-        <v>446220</v>
+        <v>2519</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="F47" t="s">
         <v>157</v>
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="1">
         <v>0</v>
@@ -7413,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="AP47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ47" s="1">
         <v>0</v>
@@ -7439,16 +7439,16 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C48" s="1">
-        <v>5707</v>
+        <v>62300</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F48" t="s">
         <v>157</v>
@@ -7488,10 +7488,10 @@
         <v>0</v>
       </c>
       <c r="S48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" s="1">
         <v>0</v>
@@ -7542,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL48" s="1">
         <v>0</v>
@@ -7583,19 +7583,19 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C49" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" t="s">
         <v>106</v>
-      </c>
-      <c r="E49" t="s">
-        <v>135</v>
-      </c>
-      <c r="F49" t="s">
-        <v>107</v>
       </c>
       <c r="G49" t="s">
         <v>159</v>
@@ -7623,10 +7623,10 @@
         <v>0</v>
       </c>
       <c r="P49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="1">
         <v>0</v>
@@ -7686,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="AK49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL49" s="1">
         <v>0</v>
@@ -7710,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="AS49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="1">
         <v>0</v>
@@ -7727,16 +7727,16 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C50" s="1">
-        <v>2519</v>
+        <v>896</v>
       </c>
       <c r="D50" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E50" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F50" t="s">
         <v>157</v>
@@ -7845,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ50" s="1">
         <v>0</v>
@@ -7871,19 +7871,19 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C51" s="1">
-        <v>3676</v>
+        <v>4914</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F51" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G51" t="s">
         <v>159</v>
@@ -7895,10 +7895,10 @@
         <v>1259</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -8015,19 +8015,19 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52" s="1">
-        <v>4914</v>
+        <v>446220</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F52" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G52" t="s">
         <v>159</v>
@@ -8039,10 +8039,10 @@
         <v>1259</v>
       </c>
       <c r="J52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="X52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y52" s="1">
         <v>0</v>
@@ -8133,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="AP52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ52" s="1">
         <v>0</v>
@@ -8159,16 +8159,16 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C53" s="1">
-        <v>12562546</v>
+        <v>3676</v>
       </c>
       <c r="D53" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F53" t="s">
         <v>157</v>
@@ -8253,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="AH53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI53" s="1">
         <v>0</v>
@@ -8277,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="AP53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ53" s="1">
         <v>0</v>
@@ -8303,16 +8303,16 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C54" s="1">
-        <v>165365057</v>
+        <v>12562546</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="F54" t="s">
         <v>157</v>
@@ -8397,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="AH54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI54" s="1">
         <v>0</v>
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT54" s="1">
         <v>0</v>
@@ -8447,19 +8447,19 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C55" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E55" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F55" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G55" t="s">
         <v>159</v>
@@ -8471,10 +8471,10 @@
         <v>1282</v>
       </c>
       <c r="J55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
@@ -8493,10 +8493,10 @@
         <v>0</v>
       </c>
       <c r="R55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T55" s="1">
         <v>0</v>
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="1">
         <v>0</v>
@@ -8591,19 +8591,19 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C56" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D56" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E56" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F56" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G56" t="s">
         <v>159</v>
@@ -8615,10 +8615,10 @@
         <v>1282</v>
       </c>
       <c r="J56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -8637,10 +8637,10 @@
         <v>0</v>
       </c>
       <c r="R56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T56" s="1">
         <v>0</v>
@@ -8655,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="X56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y56" s="1">
         <v>0</v>
@@ -8735,19 +8735,19 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C57" s="1">
         <v>3345</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E57" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G57" t="s">
         <v>159</v>
@@ -8879,19 +8879,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C58" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D58" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E58" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F58" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G58" t="s">
         <v>159</v>
@@ -8903,10 +8903,10 @@
         <v>1307</v>
       </c>
       <c r="J58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
@@ -8940,10 +8940,10 @@
         <v>0</v>
       </c>
       <c r="W58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y58" s="1">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>79</v>
       </c>
       <c r="C59" s="1">
-        <v>637578</v>
+        <v>119478</v>
       </c>
       <c r="D59" t="s">
         <v>114</v>
@@ -9138,7 +9138,7 @@
         <v>0</v>
       </c>
       <c r="AO59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP59" s="1">
         <v>0</v>
@@ -9167,19 +9167,19 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C60" s="1">
-        <v>446220</v>
+        <v>637578</v>
       </c>
       <c r="D60" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F60" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G60" t="s">
         <v>159</v>
@@ -9191,10 +9191,10 @@
         <v>1307</v>
       </c>
       <c r="J60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1">
@@ -9228,10 +9228,10 @@
         <v>0</v>
       </c>
       <c r="W60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="1">
         <v>0</v>
@@ -9282,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="AO60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP60" s="1">
         <v>0</v>
@@ -9311,19 +9311,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C61" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D61" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" t="s">
+        <v>132</v>
+      </c>
+      <c r="F61" t="s">
         <v>106</v>
-      </c>
-      <c r="E61" t="s">
-        <v>135</v>
-      </c>
-      <c r="F61" t="s">
-        <v>157</v>
       </c>
       <c r="G61" t="s">
         <v>159</v>
@@ -9335,10 +9335,10 @@
         <v>1329</v>
       </c>
       <c r="J61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1">
@@ -9351,10 +9351,10 @@
         <v>0</v>
       </c>
       <c r="P61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
@@ -9414,7 +9414,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -9438,7 +9438,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -9455,19 +9455,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C62" s="1">
         <v>5707</v>
       </c>
       <c r="D62" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E62" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G62" t="s">
         <v>159</v>
@@ -9599,16 +9599,16 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C63" s="1">
-        <v>5462328</v>
+        <v>2519</v>
       </c>
       <c r="D63" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F63" t="s">
         <v>157</v>
@@ -9702,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63" s="1">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="AP63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ63" s="1">
         <v>0</v>
@@ -9743,16 +9743,16 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C64" s="1">
-        <v>2519</v>
+        <v>5462328</v>
       </c>
       <c r="D64" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E64" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F64" t="s">
         <v>157</v>
@@ -9846,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="AK64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL64" s="1">
         <v>0</v>
@@ -9861,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="AP64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ64" s="1">
         <v>0</v>
@@ -9887,19 +9887,19 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C65" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D65" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E65" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F65" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G65" t="s">
         <v>159</v>
@@ -9911,10 +9911,10 @@
         <v>1329</v>
       </c>
       <c r="J65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -9927,10 +9927,10 @@
         <v>0</v>
       </c>
       <c r="P65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" s="1">
         <v>0</v>
@@ -9990,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -10014,7 +10014,7 @@
         <v>0</v>
       </c>
       <c r="AS65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT65" s="1">
         <v>0</v>
@@ -10031,19 +10031,19 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C66" s="1">
         <v>3345</v>
       </c>
       <c r="D66" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E66" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G66" t="s">
         <v>159</v>
@@ -10175,19 +10175,19 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C67" s="1">
         <v>5707</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G67" t="s">
         <v>159</v>
@@ -10322,16 +10322,16 @@
         <v>70</v>
       </c>
       <c r="C68" s="1">
-        <v>88890</v>
+        <v>156346345</v>
       </c>
       <c r="D68" t="s">
         <v>106</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="F68" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G68" t="s">
         <v>159</v>
@@ -10343,10 +10343,10 @@
         <v>1426</v>
       </c>
       <c r="J68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
@@ -10463,19 +10463,19 @@
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C69" s="1">
         <v>3345</v>
       </c>
       <c r="D69" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E69" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G69" t="s">
         <v>159</v>
@@ -10610,16 +10610,16 @@
         <v>71</v>
       </c>
       <c r="C70" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D70" t="s">
         <v>107</v>
       </c>
       <c r="E70" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G70" t="s">
         <v>159</v>
@@ -10631,10 +10631,10 @@
         <v>1426</v>
       </c>
       <c r="J70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -10751,16 +10751,16 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C71" s="1">
         <v>5707</v>
       </c>
       <c r="D71" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E71" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F71" t="s">
         <v>157</v>
@@ -10895,16 +10895,16 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C72" s="1">
         <v>3345</v>
       </c>
       <c r="D72" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E72" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F72" t="s">
         <v>157</v>
@@ -11039,19 +11039,19 @@
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C73" s="1">
         <v>88890</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73" t="s">
         <v>135</v>
       </c>
       <c r="F73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G73" t="s">
         <v>159</v>
@@ -11183,19 +11183,19 @@
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C74" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D74" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E74" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G74" t="s">
         <v>159</v>
@@ -11223,16 +11223,16 @@
         <v>0</v>
       </c>
       <c r="P74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T74" s="1">
         <v>0</v>
@@ -11286,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="AK74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL74" s="1">
         <v>0</v>
@@ -11327,19 +11327,19 @@
         <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C75" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D75" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E75" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G75" t="s">
         <v>159</v>
@@ -11367,16 +11367,16 @@
         <v>0</v>
       </c>
       <c r="P75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75" s="1">
         <v>0</v>
@@ -11430,7 +11430,7 @@
         <v>0</v>
       </c>
       <c r="AK75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL75" s="1">
         <v>0</v>
@@ -11471,7 +11471,7 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C76" s="1">
         <v>2519</v>
@@ -11483,7 +11483,7 @@
         <v>144</v>
       </c>
       <c r="F76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G76" t="s">
         <v>159</v>
@@ -11615,19 +11615,19 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C77" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E77" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G77" t="s">
         <v>159</v>
@@ -11655,10 +11655,10 @@
         <v>0</v>
       </c>
       <c r="P77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R77" s="1">
         <v>0</v>
@@ -11718,7 +11718,7 @@
         <v>0</v>
       </c>
       <c r="AK77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL77" s="1">
         <v>0</v>
@@ -11742,7 +11742,7 @@
         <v>0</v>
       </c>
       <c r="AS77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT77" s="1">
         <v>0</v>
@@ -11759,19 +11759,19 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C78" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D78" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E78" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G78" t="s">
         <v>159</v>
@@ -11799,16 +11799,16 @@
         <v>0</v>
       </c>
       <c r="P78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T78" s="1">
         <v>0</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AK78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL78" s="1">
         <v>0</v>
@@ -11903,19 +11903,19 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C79" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D79" t="s">
+        <v>102</v>
+      </c>
+      <c r="E79" t="s">
+        <v>131</v>
+      </c>
+      <c r="F79" t="s">
         <v>106</v>
-      </c>
-      <c r="E79" t="s">
-        <v>135</v>
-      </c>
-      <c r="F79" t="s">
-        <v>107</v>
       </c>
       <c r="G79" t="s">
         <v>159</v>
@@ -11949,10 +11949,10 @@
         <v>0</v>
       </c>
       <c r="R79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T79" s="1">
         <v>0</v>
@@ -12030,7 +12030,7 @@
         <v>0</v>
       </c>
       <c r="AS79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT79" s="1">
         <v>0</v>
@@ -12047,13 +12047,13 @@
         <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C80" s="1">
         <v>88890</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E80" t="s">
         <v>135</v>
@@ -12191,16 +12191,16 @@
         <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C81" s="1">
         <v>3345</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E81" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F81" t="s">
         <v>157</v>
@@ -12335,19 +12335,19 @@
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C82" s="1">
         <v>5707</v>
       </c>
       <c r="D82" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E82" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G82" t="s">
         <v>159</v>
@@ -12623,19 +12623,19 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C84" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D84" t="s">
+        <v>103</v>
+      </c>
+      <c r="E84" t="s">
+        <v>132</v>
+      </c>
+      <c r="F84" t="s">
         <v>106</v>
-      </c>
-      <c r="E84" t="s">
-        <v>135</v>
-      </c>
-      <c r="F84" t="s">
-        <v>157</v>
       </c>
       <c r="G84" t="s">
         <v>159</v>
@@ -12647,10 +12647,10 @@
         <v>1656</v>
       </c>
       <c r="J84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" s="1"/>
       <c r="M84" s="1">
@@ -12663,10 +12663,10 @@
         <v>0</v>
       </c>
       <c r="P84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R84" s="1">
         <v>0</v>
@@ -12726,7 +12726,7 @@
         <v>0</v>
       </c>
       <c r="AK84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL84" s="1">
         <v>0</v>
@@ -12750,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="AS84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT84" s="1">
         <v>0</v>
@@ -12767,16 +12767,16 @@
         <v>18</v>
       </c>
       <c r="B85" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C85" s="1">
         <v>5707</v>
       </c>
       <c r="D85" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E85" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F85" t="s">
         <v>157</v>
@@ -12911,19 +12911,19 @@
         <v>18</v>
       </c>
       <c r="B86" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C86" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D86" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E86" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F86" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G86" t="s">
         <v>159</v>
@@ -12935,10 +12935,10 @@
         <v>1656</v>
       </c>
       <c r="J86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" s="1"/>
       <c r="M86" s="1">
@@ -12951,10 +12951,10 @@
         <v>0</v>
       </c>
       <c r="P86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R86" s="1">
         <v>0</v>
@@ -13014,7 +13014,7 @@
         <v>0</v>
       </c>
       <c r="AK86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL86" s="1">
         <v>0</v>
@@ -13038,7 +13038,7 @@
         <v>0</v>
       </c>
       <c r="AS86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT86" s="1">
         <v>0</v>
@@ -13055,19 +13055,19 @@
         <v>18</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C87" s="1">
         <v>5462328</v>
       </c>
       <c r="D87" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E87" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G87" t="s">
         <v>159</v>
@@ -13199,19 +13199,19 @@
         <v>19</v>
       </c>
       <c r="B88" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C88" s="1">
         <v>88890</v>
       </c>
       <c r="D88" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E88" t="s">
         <v>135</v>
       </c>
       <c r="F88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G88" t="s">
         <v>159</v>
@@ -13343,16 +13343,16 @@
         <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C89" s="1">
         <v>62300</v>
       </c>
       <c r="D89" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E89" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F89" t="s">
         <v>157</v>
@@ -13487,19 +13487,19 @@
         <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C90" s="1">
         <v>5707</v>
       </c>
       <c r="D90" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E90" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G90" t="s">
         <v>159</v>
@@ -13631,19 +13631,19 @@
         <v>19</v>
       </c>
       <c r="B91" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C91" s="1">
         <v>3345</v>
       </c>
       <c r="D91" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E91" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G91" t="s">
         <v>159</v>
@@ -13775,19 +13775,19 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C92" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D92" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E92" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F92" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G92" t="s">
         <v>159</v>
@@ -13799,10 +13799,10 @@
         <v>1660</v>
       </c>
       <c r="J92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" s="1"/>
       <c r="M92" s="1">
@@ -13878,7 +13878,7 @@
         <v>0</v>
       </c>
       <c r="AK92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL92" s="1">
         <v>0</v>
@@ -13902,7 +13902,7 @@
         <v>0</v>
       </c>
       <c r="AS92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT92" s="1">
         <v>0</v>
@@ -13919,19 +13919,19 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C93" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D93" t="s">
+        <v>102</v>
+      </c>
+      <c r="E93" t="s">
+        <v>131</v>
+      </c>
+      <c r="F93" t="s">
         <v>106</v>
-      </c>
-      <c r="E93" t="s">
-        <v>135</v>
-      </c>
-      <c r="F93" t="s">
-        <v>107</v>
       </c>
       <c r="G93" t="s">
         <v>159</v>
@@ -13965,10 +13965,10 @@
         <v>0</v>
       </c>
       <c r="R93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T93" s="1">
         <v>0</v>
@@ -14046,7 +14046,7 @@
         <v>0</v>
       </c>
       <c r="AS93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT93" s="1">
         <v>0</v>
@@ -14063,19 +14063,19 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C94" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D94" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E94" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G94" t="s">
         <v>159</v>
@@ -14103,16 +14103,16 @@
         <v>0</v>
       </c>
       <c r="P94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T94" s="1">
         <v>0</v>
@@ -14166,7 +14166,7 @@
         <v>0</v>
       </c>
       <c r="AK94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL94" s="1">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>74</v>
       </c>
       <c r="C95" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D95" t="s">
         <v>110</v>
@@ -14219,7 +14219,7 @@
         <v>138</v>
       </c>
       <c r="F95" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G95" t="s">
         <v>159</v>
@@ -14231,10 +14231,10 @@
         <v>1660</v>
       </c>
       <c r="J95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1">
@@ -14247,10 +14247,10 @@
         <v>0</v>
       </c>
       <c r="P95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R95" s="1">
         <v>0</v>
@@ -14351,14 +14351,16 @@
         <v>21</v>
       </c>
       <c r="B96" t="s">
-        <v>85</v>
-      </c>
-      <c r="C96" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="C96" s="1">
+        <v>3345</v>
+      </c>
       <c r="D96" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E96" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="F96" t="s">
         <v>157</v>
@@ -14392,7 +14394,7 @@
         <v>0</v>
       </c>
       <c r="Q96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R96" s="1">
         <v>0</v>
@@ -14449,7 +14451,7 @@
         <v>0</v>
       </c>
       <c r="AJ96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK96" s="1">
         <v>1</v>
@@ -14493,19 +14495,19 @@
         <v>21</v>
       </c>
       <c r="B97" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C97" s="1">
         <v>5707</v>
       </c>
       <c r="D97" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E97" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G97" t="s">
         <v>159</v>
@@ -14637,16 +14639,14 @@
         <v>21</v>
       </c>
       <c r="B98" t="s">
-        <v>74</v>
-      </c>
-      <c r="C98" s="1">
-        <v>3345</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C98" s="1"/>
       <c r="D98" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E98" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="F98" t="s">
         <v>157</v>
@@ -14680,7 +14680,7 @@
         <v>0</v>
       </c>
       <c r="Q98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R98" s="1">
         <v>0</v>
@@ -14737,7 +14737,7 @@
         <v>0</v>
       </c>
       <c r="AJ98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK98" s="1">
         <v>1</v>
@@ -14781,19 +14781,19 @@
         <v>22</v>
       </c>
       <c r="B99" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C99" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D99" t="s">
+        <v>102</v>
+      </c>
+      <c r="E99" t="s">
+        <v>131</v>
+      </c>
+      <c r="F99" t="s">
         <v>106</v>
-      </c>
-      <c r="E99" t="s">
-        <v>135</v>
-      </c>
-      <c r="F99" t="s">
-        <v>157</v>
       </c>
       <c r="G99" t="s">
         <v>159</v>
@@ -14805,10 +14805,10 @@
         <v>1673</v>
       </c>
       <c r="J99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" s="1"/>
       <c r="M99" s="1">
@@ -14827,10 +14827,10 @@
         <v>0</v>
       </c>
       <c r="R99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T99" s="1">
         <v>0</v>
@@ -14908,7 +14908,7 @@
         <v>0</v>
       </c>
       <c r="AS99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT99" s="1">
         <v>0</v>
@@ -14925,19 +14925,19 @@
         <v>22</v>
       </c>
       <c r="B100" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C100" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D100" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E100" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F100" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G100" t="s">
         <v>159</v>
@@ -14949,10 +14949,10 @@
         <v>1673</v>
       </c>
       <c r="J100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100" s="1"/>
       <c r="M100" s="1">
@@ -14965,10 +14965,10 @@
         <v>0</v>
       </c>
       <c r="P100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R100" s="1">
         <v>0</v>
@@ -15028,7 +15028,7 @@
         <v>0</v>
       </c>
       <c r="AK100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL100" s="1">
         <v>0</v>
@@ -15052,7 +15052,7 @@
         <v>0</v>
       </c>
       <c r="AS100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT100" s="1">
         <v>0</v>
@@ -15069,19 +15069,19 @@
         <v>22</v>
       </c>
       <c r="B101" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C101" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D101" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E101" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G101" t="s">
         <v>159</v>
@@ -15109,16 +15109,16 @@
         <v>0</v>
       </c>
       <c r="P101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T101" s="1">
         <v>0</v>
@@ -15172,7 +15172,7 @@
         <v>0</v>
       </c>
       <c r="AK101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL101" s="1">
         <v>0</v>
@@ -15213,13 +15213,13 @@
         <v>23</v>
       </c>
       <c r="B102" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C102" s="1">
         <v>88890</v>
       </c>
       <c r="D102" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E102" t="s">
         <v>135</v>
@@ -15357,19 +15357,19 @@
         <v>23</v>
       </c>
       <c r="B103" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C103" s="1">
         <v>3345</v>
       </c>
       <c r="D103" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E103" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G103" t="s">
         <v>159</v>
@@ -15501,19 +15501,19 @@
         <v>24</v>
       </c>
       <c r="B104" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C104" s="1">
         <v>3345</v>
       </c>
       <c r="D104" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G104" t="s">
         <v>159</v>
@@ -15645,19 +15645,19 @@
         <v>24</v>
       </c>
       <c r="B105" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C105" s="1">
         <v>88890</v>
       </c>
       <c r="D105" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E105" t="s">
         <v>135</v>
       </c>
       <c r="F105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G105" t="s">
         <v>159</v>
@@ -15793,13 +15793,13 @@
       </c>
       <c r="C106" s="1"/>
       <c r="D106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G106" t="s">
         <v>159</v>
@@ -15931,19 +15931,19 @@
         <v>25</v>
       </c>
       <c r="B107" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C107" s="1">
         <v>3345</v>
       </c>
       <c r="D107" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E107" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G107" t="s">
         <v>159</v>
@@ -16075,19 +16075,19 @@
         <v>25</v>
       </c>
       <c r="B108" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C108" s="1">
         <v>5707</v>
       </c>
       <c r="D108" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E108" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G108" t="s">
         <v>159</v>
@@ -16219,19 +16219,19 @@
         <v>25</v>
       </c>
       <c r="B109" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C109" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E109" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F109" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G109" t="s">
         <v>159</v>
@@ -16243,10 +16243,10 @@
         <v>1689</v>
       </c>
       <c r="J109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L109" s="1"/>
       <c r="M109" s="1">
@@ -16322,7 +16322,7 @@
         <v>0</v>
       </c>
       <c r="AK109" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL109" s="1">
         <v>0</v>
@@ -16346,7 +16346,7 @@
         <v>0</v>
       </c>
       <c r="AS109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT109" s="1">
         <v>0</v>
@@ -16363,19 +16363,19 @@
         <v>25</v>
       </c>
       <c r="B110" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C110" s="1">
-        <v>88890</v>
+        <v>62300</v>
       </c>
       <c r="D110" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E110" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F110" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G110" t="s">
         <v>159</v>
@@ -16387,10 +16387,10 @@
         <v>1689</v>
       </c>
       <c r="J110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110" s="1"/>
       <c r="M110" s="1">
@@ -16466,7 +16466,7 @@
         <v>0</v>
       </c>
       <c r="AK110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL110" s="1">
         <v>0</v>
@@ -16490,7 +16490,7 @@
         <v>0</v>
       </c>
       <c r="AS110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT110" s="1">
         <v>0</v>
@@ -16507,19 +16507,19 @@
         <v>26</v>
       </c>
       <c r="B111" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C111" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D111" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E111" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F111" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G111" t="s">
         <v>159</v>
@@ -16547,10 +16547,10 @@
         <v>0</v>
       </c>
       <c r="P111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R111" s="1">
         <v>0</v>
@@ -16610,7 +16610,7 @@
         <v>0</v>
       </c>
       <c r="AK111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL111" s="1">
         <v>0</v>
@@ -16634,7 +16634,7 @@
         <v>0</v>
       </c>
       <c r="AS111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT111" s="1">
         <v>0</v>
@@ -16651,19 +16651,19 @@
         <v>26</v>
       </c>
       <c r="B112" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C112" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D112" t="s">
+        <v>108</v>
+      </c>
+      <c r="E112" t="s">
+        <v>136</v>
+      </c>
+      <c r="F112" t="s">
         <v>106</v>
-      </c>
-      <c r="E112" t="s">
-        <v>135</v>
-      </c>
-      <c r="F112" t="s">
-        <v>107</v>
       </c>
       <c r="G112" t="s">
         <v>159</v>
@@ -16754,7 +16754,7 @@
         <v>0</v>
       </c>
       <c r="AK112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL112" s="1">
         <v>0</v>
@@ -16778,7 +16778,7 @@
         <v>0</v>
       </c>
       <c r="AS112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT112" s="1">
         <v>0</v>
@@ -16798,7 +16798,7 @@
         <v>67</v>
       </c>
       <c r="C113" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D113" t="s">
         <v>103</v>
@@ -16807,7 +16807,7 @@
         <v>132</v>
       </c>
       <c r="F113" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G113" t="s">
         <v>159</v>
@@ -16835,10 +16835,10 @@
         <v>0</v>
       </c>
       <c r="P113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R113" s="1">
         <v>0</v>
@@ -16939,19 +16939,19 @@
         <v>26</v>
       </c>
       <c r="B114" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C114" s="1">
         <v>5707</v>
       </c>
       <c r="D114" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E114" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F114" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G114" t="s">
         <v>159</v>
@@ -17086,7 +17086,7 @@
         <v>74</v>
       </c>
       <c r="C115" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D115" t="s">
         <v>110</v>
@@ -17095,7 +17095,7 @@
         <v>138</v>
       </c>
       <c r="F115" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G115" t="s">
         <v>159</v>
@@ -17123,10 +17123,10 @@
         <v>0</v>
       </c>
       <c r="P115" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q115" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R115" s="1">
         <v>0</v>
@@ -17227,19 +17227,19 @@
         <v>27</v>
       </c>
       <c r="B116" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C116" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D116" t="s">
+        <v>102</v>
+      </c>
+      <c r="E116" t="s">
+        <v>131</v>
+      </c>
+      <c r="F116" t="s">
         <v>106</v>
-      </c>
-      <c r="E116" t="s">
-        <v>135</v>
-      </c>
-      <c r="F116" t="s">
-        <v>107</v>
       </c>
       <c r="G116" t="s">
         <v>159</v>
@@ -17273,10 +17273,10 @@
         <v>0</v>
       </c>
       <c r="R116" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S116" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T116" s="1">
         <v>0</v>
@@ -17354,7 +17354,7 @@
         <v>0</v>
       </c>
       <c r="AS116" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT116" s="1">
         <v>0</v>
@@ -17371,19 +17371,19 @@
         <v>27</v>
       </c>
       <c r="B117" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C117" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D117" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E117" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F117" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G117" t="s">
         <v>159</v>
@@ -17411,10 +17411,10 @@
         <v>0</v>
       </c>
       <c r="P117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R117" s="1">
         <v>0</v>
@@ -17515,19 +17515,19 @@
         <v>27</v>
       </c>
       <c r="B118" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C118" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D118" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E118" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F118" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G118" t="s">
         <v>159</v>
@@ -17561,10 +17561,10 @@
         <v>0</v>
       </c>
       <c r="R118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T118" s="1">
         <v>0</v>
@@ -17642,7 +17642,7 @@
         <v>0</v>
       </c>
       <c r="AS118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT118" s="1">
         <v>0</v>
@@ -17659,19 +17659,19 @@
         <v>28</v>
       </c>
       <c r="B119" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C119" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D119" t="s">
+        <v>102</v>
+      </c>
+      <c r="E119" t="s">
+        <v>131</v>
+      </c>
+      <c r="F119" t="s">
         <v>106</v>
-      </c>
-      <c r="E119" t="s">
-        <v>135</v>
-      </c>
-      <c r="F119" t="s">
-        <v>157</v>
       </c>
       <c r="G119" t="s">
         <v>159</v>
@@ -17683,10 +17683,10 @@
         <v>1694</v>
       </c>
       <c r="J119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L119" s="1"/>
       <c r="M119" s="1">
@@ -17705,10 +17705,10 @@
         <v>0</v>
       </c>
       <c r="R119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T119" s="1">
         <v>0</v>
@@ -17786,7 +17786,7 @@
         <v>0</v>
       </c>
       <c r="AS119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT119" s="1">
         <v>0</v>
@@ -17803,19 +17803,19 @@
         <v>28</v>
       </c>
       <c r="B120" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C120" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D120" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E120" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F120" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G120" t="s">
         <v>159</v>
@@ -17827,10 +17827,10 @@
         <v>1694</v>
       </c>
       <c r="J120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L120" s="1"/>
       <c r="M120" s="1">
@@ -17849,10 +17849,10 @@
         <v>0</v>
       </c>
       <c r="R120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T120" s="1">
         <v>0</v>
@@ -17930,7 +17930,7 @@
         <v>0</v>
       </c>
       <c r="AS120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT120" s="1">
         <v>0</v>
@@ -17947,19 +17947,19 @@
         <v>28</v>
       </c>
       <c r="B121" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C121" s="1">
         <v>3345</v>
       </c>
       <c r="D121" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E121" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F121" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G121" t="s">
         <v>159</v>
@@ -18091,19 +18091,19 @@
         <v>29</v>
       </c>
       <c r="B122" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C122" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D122" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E122" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F122" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G122" t="s">
         <v>159</v>
@@ -18131,16 +18131,16 @@
         <v>0</v>
       </c>
       <c r="P122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T122" s="1">
         <v>0</v>
@@ -18194,7 +18194,7 @@
         <v>0</v>
       </c>
       <c r="AK122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL122" s="1">
         <v>0</v>
@@ -18235,7 +18235,7 @@
         <v>29</v>
       </c>
       <c r="B123" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C123" s="1">
         <v>2519</v>
@@ -18379,19 +18379,19 @@
         <v>29</v>
       </c>
       <c r="B124" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C124" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D124" t="s">
+        <v>103</v>
+      </c>
+      <c r="E124" t="s">
+        <v>132</v>
+      </c>
+      <c r="F124" t="s">
         <v>106</v>
-      </c>
-      <c r="E124" t="s">
-        <v>135</v>
-      </c>
-      <c r="F124" t="s">
-        <v>107</v>
       </c>
       <c r="G124" t="s">
         <v>159</v>
@@ -18419,10 +18419,10 @@
         <v>0</v>
       </c>
       <c r="P124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R124" s="1">
         <v>0</v>
@@ -18482,7 +18482,7 @@
         <v>0</v>
       </c>
       <c r="AK124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL124" s="1">
         <v>0</v>
@@ -18506,7 +18506,7 @@
         <v>0</v>
       </c>
       <c r="AS124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT124" s="1">
         <v>0</v>
@@ -18523,19 +18523,19 @@
         <v>29</v>
       </c>
       <c r="B125" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C125" s="1">
-        <v>5707</v>
+        <v>3100</v>
       </c>
       <c r="D125" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E125" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F125" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G125" t="s">
         <v>159</v>
@@ -18569,10 +18569,10 @@
         <v>0</v>
       </c>
       <c r="R125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T125" s="1">
         <v>0</v>
@@ -18641,7 +18641,7 @@
         <v>0</v>
       </c>
       <c r="AP125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ125" s="1">
         <v>0</v>
@@ -18667,19 +18667,19 @@
         <v>29</v>
       </c>
       <c r="B126" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C126" s="1">
-        <v>3100</v>
+        <v>88890</v>
       </c>
       <c r="D126" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E126" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F126" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G126" t="s">
         <v>159</v>
@@ -18785,7 +18785,7 @@
         <v>0</v>
       </c>
       <c r="AP126" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ126" s="1">
         <v>0</v>
@@ -18794,7 +18794,7 @@
         <v>0</v>
       </c>
       <c r="AS126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT126" s="1">
         <v>0</v>
@@ -18811,19 +18811,19 @@
         <v>30</v>
       </c>
       <c r="B127" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C127" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D127" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E127" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="F127" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G127" t="s">
         <v>159</v>
@@ -18835,10 +18835,10 @@
         <v>1702</v>
       </c>
       <c r="J127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L127" s="1"/>
       <c r="M127" s="1">
@@ -18851,10 +18851,10 @@
         <v>0</v>
       </c>
       <c r="P127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R127" s="1">
         <v>0</v>
@@ -18914,7 +18914,7 @@
         <v>0</v>
       </c>
       <c r="AK127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL127" s="1">
         <v>0</v>
@@ -18938,7 +18938,7 @@
         <v>0</v>
       </c>
       <c r="AS127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT127" s="1">
         <v>0</v>
@@ -18955,16 +18955,16 @@
         <v>30</v>
       </c>
       <c r="B128" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C128" s="1">
-        <v>6251</v>
+        <v>165365057</v>
       </c>
       <c r="D128" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E128" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="F128" t="s">
         <v>157</v>
@@ -19073,7 +19073,7 @@
         <v>0</v>
       </c>
       <c r="AP128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ128" s="1">
         <v>0</v>
@@ -19082,7 +19082,7 @@
         <v>0</v>
       </c>
       <c r="AS128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT128" s="1">
         <v>0</v>
@@ -19099,19 +19099,19 @@
         <v>30</v>
       </c>
       <c r="B129" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C129" s="1">
-        <v>3345</v>
+        <v>6251</v>
       </c>
       <c r="D129" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E129" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F129" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G129" t="s">
         <v>159</v>
@@ -19123,10 +19123,10 @@
         <v>1702</v>
       </c>
       <c r="J129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L129" s="1"/>
       <c r="M129" s="1">
@@ -19139,10 +19139,10 @@
         <v>0</v>
       </c>
       <c r="P129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R129" s="1">
         <v>0</v>
@@ -19202,7 +19202,7 @@
         <v>0</v>
       </c>
       <c r="AK129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL129" s="1">
         <v>0</v>
@@ -19217,7 +19217,7 @@
         <v>0</v>
       </c>
       <c r="AP129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ129" s="1">
         <v>0</v>
@@ -19243,19 +19243,19 @@
         <v>31</v>
       </c>
       <c r="B130" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C130" s="1">
-        <v>3345</v>
+        <v>3100</v>
       </c>
       <c r="D130" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E130" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F130" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G130" t="s">
         <v>159</v>
@@ -19283,10 +19283,10 @@
         <v>0</v>
       </c>
       <c r="P130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R130" s="1">
         <v>0</v>
@@ -19346,7 +19346,7 @@
         <v>0</v>
       </c>
       <c r="AK130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL130" s="1">
         <v>0</v>
@@ -19361,7 +19361,7 @@
         <v>0</v>
       </c>
       <c r="AP130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ130" s="1">
         <v>0</v>
@@ -19387,19 +19387,19 @@
         <v>31</v>
       </c>
       <c r="B131" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C131" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D131" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E131" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F131" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G131" t="s">
         <v>159</v>
@@ -19427,16 +19427,16 @@
         <v>0</v>
       </c>
       <c r="P131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T131" s="1">
         <v>0</v>
@@ -19490,7 +19490,7 @@
         <v>0</v>
       </c>
       <c r="AK131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL131" s="1">
         <v>0</v>
@@ -19531,19 +19531,19 @@
         <v>31</v>
       </c>
       <c r="B132" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C132" s="1">
         <v>88890</v>
       </c>
       <c r="D132" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E132" t="s">
         <v>135</v>
       </c>
       <c r="F132" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G132" t="s">
         <v>159</v>
@@ -19675,19 +19675,19 @@
         <v>31</v>
       </c>
       <c r="B133" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C133" s="1">
-        <v>3100</v>
+        <v>5707</v>
       </c>
       <c r="D133" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E133" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F133" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G133" t="s">
         <v>159</v>
@@ -19721,10 +19721,10 @@
         <v>0</v>
       </c>
       <c r="R133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T133" s="1">
         <v>0</v>
@@ -19793,7 +19793,7 @@
         <v>0</v>
       </c>
       <c r="AP133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ133" s="1">
         <v>0</v>
@@ -19819,7 +19819,7 @@
         <v>31</v>
       </c>
       <c r="B134" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C134" s="1">
         <v>2519</v>
@@ -19975,7 +19975,7 @@
         <v>148</v>
       </c>
       <c r="F135" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G135" t="s">
         <v>159</v>
@@ -20107,16 +20107,16 @@
         <v>33</v>
       </c>
       <c r="B136" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C136" s="1">
-        <v>3345</v>
+        <v>21812144</v>
       </c>
       <c r="D136" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E136" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="F136" t="s">
         <v>157</v>
@@ -20150,7 +20150,7 @@
         <v>0</v>
       </c>
       <c r="Q136" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R136" s="1">
         <v>0</v>
@@ -20237,7 +20237,7 @@
         <v>0</v>
       </c>
       <c r="AT136" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU136" s="1">
         <v>0</v>
@@ -20251,19 +20251,19 @@
         <v>33</v>
       </c>
       <c r="B137" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C137" s="1">
-        <v>4754</v>
+        <v>5707</v>
       </c>
       <c r="D137" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="E137" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F137" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G137" t="s">
         <v>159</v>
@@ -20275,10 +20275,10 @@
         <v>1773</v>
       </c>
       <c r="J137" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L137" s="1"/>
       <c r="M137" s="1">
@@ -20297,10 +20297,10 @@
         <v>0</v>
       </c>
       <c r="R137" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S137" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T137" s="1">
         <v>0</v>
@@ -20369,7 +20369,7 @@
         <v>0</v>
       </c>
       <c r="AP137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ137" s="1">
         <v>0</v>
@@ -20395,16 +20395,16 @@
         <v>33</v>
       </c>
       <c r="B138" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C138" s="1">
-        <v>88890</v>
+        <v>4754</v>
       </c>
       <c r="D138" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E138" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="F138" t="s">
         <v>157</v>
@@ -20513,7 +20513,7 @@
         <v>0</v>
       </c>
       <c r="AP138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ138" s="1">
         <v>0</v>
@@ -20522,7 +20522,7 @@
         <v>0</v>
       </c>
       <c r="AS138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT138" s="1">
         <v>0</v>
@@ -20539,19 +20539,19 @@
         <v>33</v>
       </c>
       <c r="B139" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C139" s="1">
-        <v>2244</v>
+        <v>2519</v>
       </c>
       <c r="D139" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E139" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F139" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G139" t="s">
         <v>159</v>
@@ -20606,7 +20606,7 @@
         <v>0</v>
       </c>
       <c r="Y139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z139" s="1">
         <v>0</v>
@@ -20657,7 +20657,7 @@
         <v>0</v>
       </c>
       <c r="AP139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ139" s="1">
         <v>0</v>
@@ -20683,19 +20683,19 @@
         <v>33</v>
       </c>
       <c r="B140" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C140" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D140" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E140" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F140" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G140" t="s">
         <v>159</v>
@@ -20707,10 +20707,10 @@
         <v>1773</v>
       </c>
       <c r="J140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K140" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L140" s="1"/>
       <c r="M140" s="1">
@@ -20750,7 +20750,7 @@
         <v>0</v>
       </c>
       <c r="Y140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z140" s="1">
         <v>0</v>
@@ -20801,7 +20801,7 @@
         <v>0</v>
       </c>
       <c r="AP140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ140" s="1">
         <v>0</v>
@@ -20810,7 +20810,7 @@
         <v>0</v>
       </c>
       <c r="AS140" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT140" s="1">
         <v>0</v>
@@ -20839,7 +20839,7 @@
         <v>151</v>
       </c>
       <c r="F141" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G141" t="s">
         <v>159</v>
@@ -20971,19 +20971,19 @@
         <v>33</v>
       </c>
       <c r="B142" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="C142" s="1">
-        <v>5707</v>
+        <v>2244</v>
       </c>
       <c r="D142" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="E142" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="F142" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G142" t="s">
         <v>159</v>
@@ -21017,10 +21017,10 @@
         <v>0</v>
       </c>
       <c r="R142" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S142" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T142" s="1">
         <v>0</v>
@@ -21115,16 +21115,16 @@
         <v>33</v>
       </c>
       <c r="B143" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C143" s="1">
         <v>62300</v>
       </c>
       <c r="D143" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E143" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F143" t="s">
         <v>157</v>
@@ -21259,16 +21259,14 @@
         <v>33</v>
       </c>
       <c r="B144" t="s">
-        <v>92</v>
-      </c>
-      <c r="C144" s="1">
-        <v>21812144</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C144" s="1"/>
       <c r="D144" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="E144" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="F144" t="s">
         <v>157</v>
@@ -21362,7 +21360,7 @@
         <v>0</v>
       </c>
       <c r="AK144" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL144" s="1">
         <v>0</v>
@@ -21389,7 +21387,7 @@
         <v>0</v>
       </c>
       <c r="AT144" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU144" s="1">
         <v>0</v>
@@ -21403,14 +21401,16 @@
         <v>33</v>
       </c>
       <c r="B145" t="s">
-        <v>93</v>
-      </c>
-      <c r="C145" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="C145" s="1">
+        <v>3345</v>
+      </c>
       <c r="D145" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E145" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="F145" t="s">
         <v>157</v>
@@ -21444,7 +21444,7 @@
         <v>0</v>
       </c>
       <c r="Q145" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R145" s="1">
         <v>0</v>
@@ -21504,7 +21504,7 @@
         <v>0</v>
       </c>
       <c r="AK145" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL145" s="1">
         <v>0</v>
@@ -21545,19 +21545,19 @@
         <v>34</v>
       </c>
       <c r="B146" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C146" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D146" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E146" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F146" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G146" t="s">
         <v>159</v>
@@ -21569,10 +21569,10 @@
         <v>1774</v>
       </c>
       <c r="J146" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K146" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L146" s="1"/>
       <c r="M146" s="1">
@@ -21585,10 +21585,10 @@
         <v>0</v>
       </c>
       <c r="P146" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q146" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R146" s="1">
         <v>0</v>
@@ -21648,7 +21648,7 @@
         <v>0</v>
       </c>
       <c r="AK146" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL146" s="1">
         <v>0</v>
@@ -21672,7 +21672,7 @@
         <v>0</v>
       </c>
       <c r="AS146" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT146" s="1">
         <v>0</v>
@@ -21689,19 +21689,19 @@
         <v>34</v>
       </c>
       <c r="B147" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C147" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D147" t="s">
+        <v>103</v>
+      </c>
+      <c r="E147" t="s">
+        <v>132</v>
+      </c>
+      <c r="F147" t="s">
         <v>106</v>
-      </c>
-      <c r="E147" t="s">
-        <v>135</v>
-      </c>
-      <c r="F147" t="s">
-        <v>157</v>
       </c>
       <c r="G147" t="s">
         <v>159</v>
@@ -21713,10 +21713,10 @@
         <v>1774</v>
       </c>
       <c r="J147" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L147" s="1"/>
       <c r="M147" s="1">
@@ -21729,10 +21729,10 @@
         <v>0</v>
       </c>
       <c r="P147" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q147" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R147" s="1">
         <v>0</v>
@@ -21792,7 +21792,7 @@
         <v>0</v>
       </c>
       <c r="AK147" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL147" s="1">
         <v>0</v>
@@ -21816,7 +21816,7 @@
         <v>0</v>
       </c>
       <c r="AS147" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT147" s="1">
         <v>0</v>
@@ -21833,19 +21833,19 @@
         <v>34</v>
       </c>
       <c r="B148" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C148" s="1">
         <v>5707</v>
       </c>
       <c r="D148" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E148" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F148" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G148" t="s">
         <v>159</v>
@@ -21977,19 +21977,19 @@
         <v>35</v>
       </c>
       <c r="B149" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C149" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D149" t="s">
+        <v>102</v>
+      </c>
+      <c r="E149" t="s">
+        <v>131</v>
+      </c>
+      <c r="F149" t="s">
         <v>106</v>
-      </c>
-      <c r="E149" t="s">
-        <v>135</v>
-      </c>
-      <c r="F149" t="s">
-        <v>107</v>
       </c>
       <c r="G149" t="s">
         <v>159</v>
@@ -22023,10 +22023,10 @@
         <v>0</v>
       </c>
       <c r="R149" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S149" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T149" s="1">
         <v>0</v>
@@ -22104,7 +22104,7 @@
         <v>0</v>
       </c>
       <c r="AS149" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT149" s="1">
         <v>0</v>
@@ -22121,17 +22121,19 @@
         <v>35</v>
       </c>
       <c r="B150" t="s">
-        <v>94</v>
-      </c>
-      <c r="C150" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="C150" s="1">
+        <v>88890</v>
+      </c>
       <c r="D150" t="s">
         <v>107</v>
       </c>
       <c r="E150" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F150" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G150" t="s">
         <v>159</v>
@@ -22143,10 +22145,10 @@
         <v>1775</v>
       </c>
       <c r="J150" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L150" s="1"/>
       <c r="M150" s="1">
@@ -22246,7 +22248,7 @@
         <v>0</v>
       </c>
       <c r="AS150" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT150" s="1">
         <v>0</v>
@@ -22263,19 +22265,19 @@
         <v>35</v>
       </c>
       <c r="B151" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C151" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D151" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E151" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F151" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G151" t="s">
         <v>159</v>
@@ -22303,16 +22305,16 @@
         <v>0</v>
       </c>
       <c r="P151" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q151" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R151" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S151" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T151" s="1">
         <v>0</v>
@@ -22366,7 +22368,7 @@
         <v>0</v>
       </c>
       <c r="AK151" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL151" s="1">
         <v>0</v>
@@ -22413,10 +22415,10 @@
         <v>165365057</v>
       </c>
       <c r="D152" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E152" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F152" t="s">
         <v>157</v>
@@ -22551,19 +22553,17 @@
         <v>35</v>
       </c>
       <c r="B153" t="s">
-        <v>74</v>
-      </c>
-      <c r="C153" s="1">
-        <v>3345</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C153" s="1"/>
       <c r="D153" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E153" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="F153" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G153" t="s">
         <v>159</v>
@@ -22575,10 +22575,10 @@
         <v>1775</v>
       </c>
       <c r="J153" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K153" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L153" s="1"/>
       <c r="M153" s="1">
@@ -22591,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="P153" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q153" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R153" s="1">
         <v>0</v>
@@ -22654,7 +22654,7 @@
         <v>0</v>
       </c>
       <c r="AK153" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL153" s="1">
         <v>0</v>
@@ -22695,19 +22695,19 @@
         <v>36</v>
       </c>
       <c r="B154" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C154" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D154" t="s">
+        <v>102</v>
+      </c>
+      <c r="E154" t="s">
+        <v>131</v>
+      </c>
+      <c r="F154" t="s">
         <v>106</v>
-      </c>
-      <c r="E154" t="s">
-        <v>135</v>
-      </c>
-      <c r="F154" t="s">
-        <v>107</v>
       </c>
       <c r="G154" t="s">
         <v>159</v>
@@ -22741,10 +22741,10 @@
         <v>0</v>
       </c>
       <c r="R154" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S154" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T154" s="1">
         <v>0</v>
@@ -22822,7 +22822,7 @@
         <v>0</v>
       </c>
       <c r="AS154" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT154" s="1">
         <v>0</v>
@@ -22839,19 +22839,19 @@
         <v>36</v>
       </c>
       <c r="B155" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C155" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D155" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E155" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F155" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G155" t="s">
         <v>159</v>
@@ -22879,16 +22879,16 @@
         <v>0</v>
       </c>
       <c r="P155" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q155" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R155" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S155" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T155" s="1">
         <v>0</v>
@@ -22942,7 +22942,7 @@
         <v>0</v>
       </c>
       <c r="AK155" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL155" s="1">
         <v>0</v>
@@ -22983,19 +22983,19 @@
         <v>36</v>
       </c>
       <c r="B156" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C156" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D156" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E156" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F156" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G156" t="s">
         <v>159</v>
@@ -23023,10 +23023,10 @@
         <v>0</v>
       </c>
       <c r="P156" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q156" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R156" s="1">
         <v>0</v>
@@ -23086,7 +23086,7 @@
         <v>0</v>
       </c>
       <c r="AK156" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL156" s="1">
         <v>0</v>
@@ -23110,7 +23110,7 @@
         <v>0</v>
       </c>
       <c r="AS156" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT156" s="1">
         <v>0</v>
@@ -23127,19 +23127,19 @@
         <v>37</v>
       </c>
       <c r="B157" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C157" s="1">
-        <v>3100</v>
+        <v>88890</v>
       </c>
       <c r="D157" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E157" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F157" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G157" t="s">
         <v>159</v>
@@ -23245,7 +23245,7 @@
         <v>0</v>
       </c>
       <c r="AP157" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ157" s="1">
         <v>0</v>
@@ -23254,7 +23254,7 @@
         <v>0</v>
       </c>
       <c r="AS157" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT157" s="1">
         <v>0</v>
@@ -23271,19 +23271,19 @@
         <v>37</v>
       </c>
       <c r="B158" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C158" s="1">
-        <v>88890</v>
+        <v>3100</v>
       </c>
       <c r="D158" t="s">
+        <v>112</v>
+      </c>
+      <c r="E158" t="s">
+        <v>140</v>
+      </c>
+      <c r="F158" t="s">
         <v>106</v>
-      </c>
-      <c r="E158" t="s">
-        <v>135</v>
-      </c>
-      <c r="F158" t="s">
-        <v>107</v>
       </c>
       <c r="G158" t="s">
         <v>159</v>
@@ -23389,7 +23389,7 @@
         <v>0</v>
       </c>
       <c r="AP158" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ158" s="1">
         <v>0</v>
@@ -23398,7 +23398,7 @@
         <v>0</v>
       </c>
       <c r="AS158" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT158" s="1">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         <v>37</v>
       </c>
       <c r="B159" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C159" s="1">
         <v>5707</v>
       </c>
       <c r="D159" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E159" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F159" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G159" t="s">
         <v>159</v>
@@ -23559,19 +23559,19 @@
         <v>37</v>
       </c>
       <c r="B160" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C160" s="1">
         <v>3345</v>
       </c>
       <c r="D160" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E160" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F160" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G160" t="s">
         <v>159</v>
@@ -23703,19 +23703,19 @@
         <v>38</v>
       </c>
       <c r="B161" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C161" s="1">
         <v>3345</v>
       </c>
       <c r="D161" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E161" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F161" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G161" t="s">
         <v>159</v>
@@ -23847,13 +23847,13 @@
         <v>38</v>
       </c>
       <c r="B162" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C162" s="1">
         <v>88890</v>
       </c>
       <c r="D162" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E162" t="s">
         <v>135</v>
@@ -23991,19 +23991,19 @@
         <v>38</v>
       </c>
       <c r="B163" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C163" s="1">
-        <v>5707</v>
+        <v>62300</v>
       </c>
       <c r="D163" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E163" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F163" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G163" t="s">
         <v>159</v>
@@ -24015,10 +24015,10 @@
         <v>1785</v>
       </c>
       <c r="J163" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K163" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L163" s="1"/>
       <c r="M163" s="1">
@@ -24037,10 +24037,10 @@
         <v>0</v>
       </c>
       <c r="R163" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S163" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T163" s="1">
         <v>0</v>
@@ -24094,7 +24094,7 @@
         <v>0</v>
       </c>
       <c r="AK163" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL163" s="1">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>38</v>
       </c>
       <c r="B164" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C164" s="1">
-        <v>62300</v>
+        <v>5707</v>
       </c>
       <c r="D164" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E164" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F164" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G164" t="s">
         <v>159</v>
@@ -24159,10 +24159,10 @@
         <v>1785</v>
       </c>
       <c r="J164" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K164" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L164" s="1"/>
       <c r="M164" s="1">
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="R164" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S164" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T164" s="1">
         <v>0</v>
@@ -24238,7 +24238,7 @@
         <v>0</v>
       </c>
       <c r="AK164" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL164" s="1">
         <v>0</v>
@@ -24279,19 +24279,19 @@
         <v>39</v>
       </c>
       <c r="B165" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C165" s="1">
         <v>88890</v>
       </c>
       <c r="D165" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E165" t="s">
         <v>135</v>
       </c>
       <c r="F165" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G165" t="s">
         <v>159</v>
@@ -24423,19 +24423,19 @@
         <v>39</v>
       </c>
       <c r="B166" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C166" s="1">
-        <v>165365057</v>
+        <v>5707</v>
       </c>
       <c r="D166" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E166" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="F166" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G166" t="s">
         <v>159</v>
@@ -24447,10 +24447,10 @@
         <v>1801</v>
       </c>
       <c r="J166" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K166" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L166" s="1"/>
       <c r="M166" s="1">
@@ -24469,10 +24469,10 @@
         <v>0</v>
       </c>
       <c r="R166" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S166" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T166" s="1">
         <v>0</v>
@@ -24550,7 +24550,7 @@
         <v>0</v>
       </c>
       <c r="AS166" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT166" s="1">
         <v>0</v>
@@ -24567,19 +24567,19 @@
         <v>39</v>
       </c>
       <c r="B167" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C167" s="1">
         <v>3345</v>
       </c>
       <c r="D167" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E167" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F167" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G167" t="s">
         <v>159</v>
@@ -24711,19 +24711,19 @@
         <v>39</v>
       </c>
       <c r="B168" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C168" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D168" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E168" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="F168" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G168" t="s">
         <v>159</v>
@@ -24735,10 +24735,10 @@
         <v>1801</v>
       </c>
       <c r="J168" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K168" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L168" s="1"/>
       <c r="M168" s="1">
@@ -24757,10 +24757,10 @@
         <v>0</v>
       </c>
       <c r="R168" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S168" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T168" s="1">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="AS168" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT168" s="1">
         <v>0</v>
@@ -24855,19 +24855,19 @@
         <v>40</v>
       </c>
       <c r="B169" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C169" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D169" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E169" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F169" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G169" t="s">
         <v>159</v>
@@ -24879,10 +24879,10 @@
         <v>1806</v>
       </c>
       <c r="J169" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K169" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L169" s="1"/>
       <c r="M169" s="1">
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="Q169" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R169" s="1">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         <v>0</v>
       </c>
       <c r="W169" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X169" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y169" s="1">
         <v>0</v>
@@ -24958,7 +24958,7 @@
         <v>0</v>
       </c>
       <c r="AK169" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL169" s="1">
         <v>0</v>
@@ -24999,19 +24999,19 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C170" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D170" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E170" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F170" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G170" t="s">
         <v>159</v>
@@ -25023,10 +25023,10 @@
         <v>1806</v>
       </c>
       <c r="J170" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K170" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L170" s="1"/>
       <c r="M170" s="1">
@@ -25042,7 +25042,7 @@
         <v>0</v>
       </c>
       <c r="Q170" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R170" s="1">
         <v>0</v>
@@ -25060,10 +25060,10 @@
         <v>0</v>
       </c>
       <c r="W170" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X170" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y170" s="1">
         <v>0</v>
@@ -25102,7 +25102,7 @@
         <v>0</v>
       </c>
       <c r="AK170" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL170" s="1">
         <v>0</v>
@@ -25143,19 +25143,19 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C171" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D171" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E171" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="F171" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G171" t="s">
         <v>159</v>
@@ -25183,10 +25183,10 @@
         <v>0</v>
       </c>
       <c r="P171" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q171" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R171" s="1">
         <v>0</v>
@@ -25246,7 +25246,7 @@
         <v>0</v>
       </c>
       <c r="AK171" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL171" s="1">
         <v>0</v>
@@ -25270,7 +25270,7 @@
         <v>0</v>
       </c>
       <c r="AS171" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT171" s="1">
         <v>0</v>
@@ -25287,19 +25287,19 @@
         <v>41</v>
       </c>
       <c r="B172" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C172" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D172" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E172" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="F172" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G172" t="s">
         <v>159</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="P172" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q172" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R172" s="1">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         <v>0</v>
       </c>
       <c r="AK172" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL172" s="1">
         <v>0</v>
@@ -25414,7 +25414,7 @@
         <v>0</v>
       </c>
       <c r="AS172" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT172" s="1">
         <v>0</v>
@@ -25431,19 +25431,19 @@
         <v>42</v>
       </c>
       <c r="B173" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C173" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D173" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E173" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F173" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G173" t="s">
         <v>159</v>
@@ -25471,16 +25471,16 @@
         <v>0</v>
       </c>
       <c r="P173" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q173" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R173" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S173" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T173" s="1">
         <v>0</v>
@@ -25534,7 +25534,7 @@
         <v>0</v>
       </c>
       <c r="AK173" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL173" s="1">
         <v>0</v>
@@ -25575,19 +25575,19 @@
         <v>42</v>
       </c>
       <c r="B174" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C174" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D174" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E174" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F174" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G174" t="s">
         <v>159</v>
@@ -25615,10 +25615,10 @@
         <v>0</v>
       </c>
       <c r="P174" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q174" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R174" s="1">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="AK174" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL174" s="1">
         <v>0</v>
@@ -25702,7 +25702,7 @@
         <v>0</v>
       </c>
       <c r="AS174" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT174" s="1">
         <v>0</v>
@@ -25719,19 +25719,19 @@
         <v>42</v>
       </c>
       <c r="B175" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C175" s="1">
-        <v>88890</v>
+        <v>33741</v>
       </c>
       <c r="D175" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E175" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F175" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G175" t="s">
         <v>159</v>
@@ -25743,10 +25743,10 @@
         <v>1812</v>
       </c>
       <c r="J175" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K175" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L175" s="1"/>
       <c r="M175" s="1">
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="AC175" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD175" s="1">
         <v>0</v>
@@ -25822,7 +25822,7 @@
         <v>0</v>
       </c>
       <c r="AK175" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL175" s="1">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="AS175" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT175" s="1">
         <v>0</v>
@@ -25863,19 +25863,19 @@
         <v>42</v>
       </c>
       <c r="B176" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C176" s="1">
-        <v>33741</v>
+        <v>5707</v>
       </c>
       <c r="D176" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E176" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F176" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G176" t="s">
         <v>159</v>
@@ -25887,10 +25887,10 @@
         <v>1812</v>
       </c>
       <c r="J176" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K176" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L176" s="1"/>
       <c r="M176" s="1">
@@ -25909,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="R176" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S176" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T176" s="1">
         <v>0</v>
@@ -25942,7 +25942,7 @@
         <v>0</v>
       </c>
       <c r="AC176" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD176" s="1">
         <v>0</v>
@@ -25966,7 +25966,7 @@
         <v>0</v>
       </c>
       <c r="AK176" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL176" s="1">
         <v>0</v>
@@ -26007,19 +26007,19 @@
         <v>43</v>
       </c>
       <c r="B177" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C177" s="1">
         <v>88890</v>
       </c>
       <c r="D177" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E177" t="s">
         <v>135</v>
       </c>
       <c r="F177" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G177" t="s">
         <v>159</v>
@@ -26151,19 +26151,19 @@
         <v>43</v>
       </c>
       <c r="B178" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C178" s="1">
         <v>3345</v>
       </c>
       <c r="D178" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E178" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F178" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G178" t="s">
         <v>159</v>
@@ -26295,19 +26295,19 @@
         <v>43</v>
       </c>
       <c r="B179" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C179" s="1">
         <v>5707</v>
       </c>
       <c r="D179" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E179" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F179" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G179" t="s">
         <v>159</v>
@@ -26439,19 +26439,19 @@
         <v>44</v>
       </c>
       <c r="B180" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C180" s="1">
-        <v>33741</v>
+        <v>88890</v>
       </c>
       <c r="D180" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E180" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F180" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G180" t="s">
         <v>159</v>
@@ -26463,10 +26463,10 @@
         <v>1815</v>
       </c>
       <c r="J180" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K180" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L180" s="1"/>
       <c r="M180" s="1">
@@ -26518,7 +26518,7 @@
         <v>0</v>
       </c>
       <c r="AC180" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD180" s="1">
         <v>0</v>
@@ -26542,7 +26542,7 @@
         <v>0</v>
       </c>
       <c r="AK180" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL180" s="1">
         <v>0</v>
@@ -26566,7 +26566,7 @@
         <v>0</v>
       </c>
       <c r="AS180" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT180" s="1">
         <v>0</v>
@@ -26586,7 +26586,7 @@
         <v>74</v>
       </c>
       <c r="C181" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D181" t="s">
         <v>110</v>
@@ -26595,7 +26595,7 @@
         <v>138</v>
       </c>
       <c r="F181" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G181" t="s">
         <v>159</v>
@@ -26607,10 +26607,10 @@
         <v>1815</v>
       </c>
       <c r="J181" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K181" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L181" s="1"/>
       <c r="M181" s="1">
@@ -26623,10 +26623,10 @@
         <v>0</v>
       </c>
       <c r="P181" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q181" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R181" s="1">
         <v>0</v>
@@ -26727,19 +26727,19 @@
         <v>44</v>
       </c>
       <c r="B182" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C182" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D182" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E182" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F182" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G182" t="s">
         <v>159</v>
@@ -26751,10 +26751,10 @@
         <v>1815</v>
       </c>
       <c r="J182" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K182" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L182" s="1"/>
       <c r="M182" s="1">
@@ -26767,10 +26767,10 @@
         <v>0</v>
       </c>
       <c r="P182" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q182" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R182" s="1">
         <v>0</v>
@@ -26874,7 +26874,7 @@
         <v>64</v>
       </c>
       <c r="C183" s="1">
-        <v>5707</v>
+        <v>33741</v>
       </c>
       <c r="D183" t="s">
         <v>100</v>
@@ -26883,7 +26883,7 @@
         <v>129</v>
       </c>
       <c r="F183" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G183" t="s">
         <v>159</v>
@@ -26917,10 +26917,10 @@
         <v>0</v>
       </c>
       <c r="R183" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S183" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T183" s="1">
         <v>0</v>
@@ -26950,7 +26950,7 @@
         <v>0</v>
       </c>
       <c r="AC183" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD183" s="1">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="AK183" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL183" s="1">
         <v>0</v>
@@ -27015,19 +27015,19 @@
         <v>44</v>
       </c>
       <c r="B184" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C184" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D184" t="s">
+        <v>102</v>
+      </c>
+      <c r="E184" t="s">
+        <v>131</v>
+      </c>
+      <c r="F184" t="s">
         <v>106</v>
-      </c>
-      <c r="E184" t="s">
-        <v>135</v>
-      </c>
-      <c r="F184" t="s">
-        <v>157</v>
       </c>
       <c r="G184" t="s">
         <v>159</v>
@@ -27039,10 +27039,10 @@
         <v>1815</v>
       </c>
       <c r="J184" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K184" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L184" s="1"/>
       <c r="M184" s="1">
@@ -27061,10 +27061,10 @@
         <v>0</v>
       </c>
       <c r="R184" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S184" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T184" s="1">
         <v>0</v>
@@ -27142,7 +27142,7 @@
         <v>0</v>
       </c>
       <c r="AS184" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT184" s="1">
         <v>0</v>
@@ -27159,19 +27159,19 @@
         <v>45</v>
       </c>
       <c r="B185" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C185" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D185" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E185" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F185" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G185" t="s">
         <v>159</v>
@@ -27199,10 +27199,10 @@
         <v>0</v>
       </c>
       <c r="P185" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q185" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R185" s="1">
         <v>0</v>
@@ -27262,7 +27262,7 @@
         <v>0</v>
       </c>
       <c r="AK185" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL185" s="1">
         <v>0</v>
@@ -27286,7 +27286,7 @@
         <v>0</v>
       </c>
       <c r="AS185" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT185" s="1">
         <v>0</v>
@@ -27303,19 +27303,19 @@
         <v>45</v>
       </c>
       <c r="B186" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C186" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D186" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E186" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F186" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G186" t="s">
         <v>159</v>
@@ -27343,16 +27343,16 @@
         <v>0</v>
       </c>
       <c r="P186" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q186" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R186" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S186" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T186" s="1">
         <v>0</v>
@@ -27406,7 +27406,7 @@
         <v>0</v>
       </c>
       <c r="AK186" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL186" s="1">
         <v>0</v>
@@ -27447,19 +27447,19 @@
         <v>45</v>
       </c>
       <c r="B187" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C187" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D187" t="s">
+        <v>102</v>
+      </c>
+      <c r="E187" t="s">
+        <v>131</v>
+      </c>
+      <c r="F187" t="s">
         <v>106</v>
-      </c>
-      <c r="E187" t="s">
-        <v>135</v>
-      </c>
-      <c r="F187" t="s">
-        <v>107</v>
       </c>
       <c r="G187" t="s">
         <v>159</v>
@@ -27493,10 +27493,10 @@
         <v>0</v>
       </c>
       <c r="R187" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S187" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T187" s="1">
         <v>0</v>
@@ -27574,7 +27574,7 @@
         <v>0</v>
       </c>
       <c r="AS187" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT187" s="1">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>46</v>
       </c>
       <c r="B188" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C188" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D188" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E188" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F188" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G188" t="s">
         <v>159</v>
@@ -27631,16 +27631,16 @@
         <v>0</v>
       </c>
       <c r="P188" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q188" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R188" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S188" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T188" s="1">
         <v>0</v>
@@ -27694,7 +27694,7 @@
         <v>0</v>
       </c>
       <c r="AK188" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL188" s="1">
         <v>0</v>
@@ -27735,19 +27735,19 @@
         <v>46</v>
       </c>
       <c r="B189" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C189" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D189" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E189" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F189" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G189" t="s">
         <v>159</v>
@@ -27775,16 +27775,16 @@
         <v>0</v>
       </c>
       <c r="P189" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q189" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R189" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S189" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T189" s="1">
         <v>0</v>
@@ -27838,7 +27838,7 @@
         <v>0</v>
       </c>
       <c r="AK189" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL189" s="1">
         <v>0</v>
@@ -27879,13 +27879,13 @@
         <v>46</v>
       </c>
       <c r="B190" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C190" s="1">
         <v>88890</v>
       </c>
       <c r="D190" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E190" t="s">
         <v>135</v>
@@ -28023,19 +28023,19 @@
         <v>47</v>
       </c>
       <c r="B191" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C191" s="1">
         <v>88890</v>
       </c>
       <c r="D191" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E191" t="s">
         <v>135</v>
       </c>
       <c r="F191" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G191" t="s">
         <v>159</v>
@@ -28167,19 +28167,19 @@
         <v>47</v>
       </c>
       <c r="B192" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C192" s="1">
         <v>5707</v>
       </c>
       <c r="D192" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E192" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F192" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G192" t="s">
         <v>159</v>
@@ -28311,19 +28311,19 @@
         <v>47</v>
       </c>
       <c r="B193" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C193" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D193" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E193" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F193" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G193" t="s">
         <v>159</v>
@@ -28335,10 +28335,10 @@
         <v>1841</v>
       </c>
       <c r="J193" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K193" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L193" s="1"/>
       <c r="M193" s="1">
@@ -28351,10 +28351,10 @@
         <v>0</v>
       </c>
       <c r="P193" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q193" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R193" s="1">
         <v>0</v>
@@ -28455,19 +28455,19 @@
         <v>47</v>
       </c>
       <c r="B194" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C194" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D194" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E194" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F194" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G194" t="s">
         <v>159</v>
@@ -28479,10 +28479,10 @@
         <v>1841</v>
       </c>
       <c r="J194" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K194" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L194" s="1"/>
       <c r="M194" s="1">
@@ -28495,10 +28495,10 @@
         <v>0</v>
       </c>
       <c r="P194" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q194" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R194" s="1">
         <v>0</v>
@@ -28519,7 +28519,7 @@
         <v>0</v>
       </c>
       <c r="X194" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y194" s="1">
         <v>0</v>
@@ -28558,7 +28558,7 @@
         <v>0</v>
       </c>
       <c r="AK194" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL194" s="1">
         <v>0</v>
@@ -28599,16 +28599,16 @@
         <v>47</v>
       </c>
       <c r="B195" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C195" s="1">
-        <v>446220</v>
+        <v>62300</v>
       </c>
       <c r="D195" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E195" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F195" t="s">
         <v>157</v>
@@ -28663,7 +28663,7 @@
         <v>0</v>
       </c>
       <c r="X195" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y195" s="1">
         <v>0</v>
@@ -28702,7 +28702,7 @@
         <v>0</v>
       </c>
       <c r="AK195" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL195" s="1">
         <v>0</v>
@@ -28743,19 +28743,19 @@
         <v>48</v>
       </c>
       <c r="B196" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C196" s="1">
         <v>88890</v>
       </c>
       <c r="D196" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E196" t="s">
         <v>135</v>
       </c>
       <c r="F196" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G196" t="s">
         <v>159</v>
@@ -28887,19 +28887,19 @@
         <v>48</v>
       </c>
       <c r="B197" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C197" s="1">
         <v>3345</v>
       </c>
       <c r="D197" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E197" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F197" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G197" t="s">
         <v>159</v>
@@ -29031,19 +29031,19 @@
         <v>48</v>
       </c>
       <c r="B198" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C198" s="1">
         <v>5707</v>
       </c>
       <c r="D198" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E198" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F198" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G198" t="s">
         <v>159</v>
@@ -29175,19 +29175,19 @@
         <v>49</v>
       </c>
       <c r="B199" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C199" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D199" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E199" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F199" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G199" t="s">
         <v>159</v>
@@ -29215,16 +29215,16 @@
         <v>0</v>
       </c>
       <c r="P199" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q199" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R199" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S199" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T199" s="1">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="AK199" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL199" s="1">
         <v>0</v>
@@ -29319,19 +29319,19 @@
         <v>49</v>
       </c>
       <c r="B200" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C200" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D200" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E200" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F200" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G200" t="s">
         <v>159</v>
@@ -29359,16 +29359,16 @@
         <v>0</v>
       </c>
       <c r="P200" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q200" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R200" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S200" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T200" s="1">
         <v>0</v>
@@ -29422,7 +29422,7 @@
         <v>0</v>
       </c>
       <c r="AK200" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL200" s="1">
         <v>0</v>
@@ -29463,19 +29463,19 @@
         <v>50</v>
       </c>
       <c r="B201" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C201" s="1">
         <v>5707</v>
       </c>
       <c r="D201" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E201" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F201" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G201" t="s">
         <v>159</v>
@@ -29607,7 +29607,7 @@
         <v>50</v>
       </c>
       <c r="B202" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C202" s="1">
         <v>2519</v>
@@ -29751,16 +29751,16 @@
         <v>50</v>
       </c>
       <c r="B203" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C203" s="1">
         <v>3345</v>
       </c>
       <c r="D203" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E203" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F203" t="s">
         <v>157</v>
@@ -29895,13 +29895,13 @@
         <v>50</v>
       </c>
       <c r="B204" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C204" s="1">
         <v>88890</v>
       </c>
       <c r="D204" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E204" t="s">
         <v>135</v>
@@ -30039,16 +30039,16 @@
         <v>51</v>
       </c>
       <c r="B205" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C205" s="1">
-        <v>2519</v>
+        <v>637578</v>
       </c>
       <c r="D205" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E205" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F205" t="s">
         <v>157</v>
@@ -30154,10 +30154,10 @@
         <v>0</v>
       </c>
       <c r="AO205" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP205" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ205" s="1">
         <v>0</v>
@@ -30183,19 +30183,19 @@
         <v>51</v>
       </c>
       <c r="B206" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C206" s="1">
-        <v>637578</v>
+        <v>446220</v>
       </c>
       <c r="D206" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E206" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F206" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G206" t="s">
         <v>159</v>
@@ -30207,10 +30207,10 @@
         <v>1851</v>
       </c>
       <c r="J206" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K206" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L206" s="1"/>
       <c r="M206" s="1">
@@ -30244,10 +30244,10 @@
         <v>0</v>
       </c>
       <c r="W206" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X206" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y206" s="1">
         <v>0</v>
@@ -30298,7 +30298,7 @@
         <v>0</v>
       </c>
       <c r="AO206" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP206" s="1">
         <v>0</v>
@@ -30327,19 +30327,19 @@
         <v>51</v>
       </c>
       <c r="B207" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C207" s="1">
-        <v>446220</v>
+        <v>2519</v>
       </c>
       <c r="D207" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E207" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="F207" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G207" t="s">
         <v>159</v>
@@ -30351,10 +30351,10 @@
         <v>1851</v>
       </c>
       <c r="J207" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K207" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L207" s="1"/>
       <c r="M207" s="1">
@@ -30388,10 +30388,10 @@
         <v>0</v>
       </c>
       <c r="W207" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X207" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y207" s="1">
         <v>0</v>
@@ -30445,7 +30445,7 @@
         <v>0</v>
       </c>
       <c r="AP207" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ207" s="1">
         <v>0</v>
@@ -30471,19 +30471,19 @@
         <v>52</v>
       </c>
       <c r="B208" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C208" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D208" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E208" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F208" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G208" t="s">
         <v>159</v>
@@ -30511,10 +30511,10 @@
         <v>0</v>
       </c>
       <c r="P208" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q208" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R208" s="1">
         <v>0</v>
@@ -30574,7 +30574,7 @@
         <v>0</v>
       </c>
       <c r="AK208" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL208" s="1">
         <v>0</v>
@@ -30598,7 +30598,7 @@
         <v>0</v>
       </c>
       <c r="AS208" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT208" s="1">
         <v>0</v>
@@ -30615,19 +30615,19 @@
         <v>52</v>
       </c>
       <c r="B209" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C209" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D209" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E209" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F209" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G209" t="s">
         <v>159</v>
@@ -30655,16 +30655,16 @@
         <v>0</v>
       </c>
       <c r="P209" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q209" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R209" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S209" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T209" s="1">
         <v>0</v>
@@ -30718,7 +30718,7 @@
         <v>0</v>
       </c>
       <c r="AK209" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL209" s="1">
         <v>0</v>
@@ -30759,19 +30759,19 @@
         <v>52</v>
       </c>
       <c r="B210" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C210" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D210" t="s">
+        <v>102</v>
+      </c>
+      <c r="E210" t="s">
+        <v>131</v>
+      </c>
+      <c r="F210" t="s">
         <v>106</v>
-      </c>
-      <c r="E210" t="s">
-        <v>135</v>
-      </c>
-      <c r="F210" t="s">
-        <v>107</v>
       </c>
       <c r="G210" t="s">
         <v>159</v>
@@ -30805,10 +30805,10 @@
         <v>0</v>
       </c>
       <c r="R210" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S210" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T210" s="1">
         <v>0</v>
@@ -30886,7 +30886,7 @@
         <v>0</v>
       </c>
       <c r="AS210" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT210" s="1">
         <v>0</v>
@@ -30903,16 +30903,16 @@
         <v>52</v>
       </c>
       <c r="B211" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C211" s="1">
         <v>62300</v>
       </c>
       <c r="D211" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E211" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F211" t="s">
         <v>157</v>
@@ -31050,7 +31050,7 @@
         <v>95</v>
       </c>
       <c r="C212" s="1">
-        <v>6213</v>
+        <v>10836</v>
       </c>
       <c r="D212" t="s">
         <v>125</v>
@@ -31059,7 +31059,7 @@
         <v>153</v>
       </c>
       <c r="F212" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G212" t="s">
         <v>159</v>
@@ -31102,10 +31102,10 @@
         <v>0</v>
       </c>
       <c r="U212" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V212" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W212" s="1">
         <v>0</v>
@@ -31194,7 +31194,7 @@
         <v>96</v>
       </c>
       <c r="C213" s="1">
-        <v>10836</v>
+        <v>6213</v>
       </c>
       <c r="D213" t="s">
         <v>126</v>
@@ -31203,7 +31203,7 @@
         <v>154</v>
       </c>
       <c r="F213" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G213" t="s">
         <v>159</v>
@@ -31246,10 +31246,10 @@
         <v>0</v>
       </c>
       <c r="U213" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V213" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W213" s="1">
         <v>0</v>
@@ -31335,19 +31335,19 @@
         <v>54</v>
       </c>
       <c r="B214" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C214" s="1">
         <v>5707</v>
       </c>
       <c r="D214" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E214" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F214" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G214" t="s">
         <v>159</v>
@@ -31479,19 +31479,19 @@
         <v>54</v>
       </c>
       <c r="B215" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C215" s="1">
         <v>3345</v>
       </c>
       <c r="D215" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E215" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F215" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G215" t="s">
         <v>159</v>
@@ -31623,19 +31623,19 @@
         <v>55</v>
       </c>
       <c r="B216" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C216" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D216" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E216" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F216" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G216" t="s">
         <v>159</v>
@@ -31663,10 +31663,10 @@
         <v>0</v>
       </c>
       <c r="P216" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q216" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R216" s="1">
         <v>0</v>
@@ -31726,7 +31726,7 @@
         <v>0</v>
       </c>
       <c r="AK216" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL216" s="1">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="AS216" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT216" s="1">
         <v>0</v>
@@ -31767,19 +31767,19 @@
         <v>55</v>
       </c>
       <c r="B217" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C217" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D217" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E217" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F217" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G217" t="s">
         <v>159</v>
@@ -31807,16 +31807,16 @@
         <v>0</v>
       </c>
       <c r="P217" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q217" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R217" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S217" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T217" s="1">
         <v>0</v>
@@ -31870,7 +31870,7 @@
         <v>0</v>
       </c>
       <c r="AK217" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL217" s="1">
         <v>0</v>
@@ -31911,19 +31911,19 @@
         <v>55</v>
       </c>
       <c r="B218" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C218" s="1">
-        <v>2519</v>
+        <v>5707</v>
       </c>
       <c r="D218" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E218" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F218" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G218" t="s">
         <v>159</v>
@@ -31957,10 +31957,10 @@
         <v>0</v>
       </c>
       <c r="R218" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S218" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T218" s="1">
         <v>0</v>
@@ -31978,7 +31978,7 @@
         <v>0</v>
       </c>
       <c r="Y218" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z218" s="1">
         <v>0</v>
@@ -32029,7 +32029,7 @@
         <v>0</v>
       </c>
       <c r="AP218" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ218" s="1">
         <v>0</v>
@@ -32055,19 +32055,19 @@
         <v>55</v>
       </c>
       <c r="B219" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C219" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D219" t="s">
+        <v>116</v>
+      </c>
+      <c r="E219" t="s">
+        <v>144</v>
+      </c>
+      <c r="F219" t="s">
         <v>106</v>
-      </c>
-      <c r="E219" t="s">
-        <v>135</v>
-      </c>
-      <c r="F219" t="s">
-        <v>107</v>
       </c>
       <c r="G219" t="s">
         <v>159</v>
@@ -32122,7 +32122,7 @@
         <v>0</v>
       </c>
       <c r="Y219" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z219" s="1">
         <v>0</v>
@@ -32173,7 +32173,7 @@
         <v>0</v>
       </c>
       <c r="AP219" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ219" s="1">
         <v>0</v>
@@ -32182,7 +32182,7 @@
         <v>0</v>
       </c>
       <c r="AS219" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT219" s="1">
         <v>0</v>
@@ -32199,16 +32199,16 @@
         <v>55</v>
       </c>
       <c r="B220" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C220" s="1">
         <v>156346345</v>
       </c>
       <c r="D220" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E220" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F220" t="s">
         <v>157</v>
@@ -32343,19 +32343,19 @@
         <v>56</v>
       </c>
       <c r="B221" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C221" s="1">
         <v>3345</v>
       </c>
       <c r="D221" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E221" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F221" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G221" t="s">
         <v>159</v>
@@ -32487,19 +32487,19 @@
         <v>56</v>
       </c>
       <c r="B222" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C222" s="1">
         <v>88890</v>
       </c>
       <c r="D222" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E222" t="s">
         <v>135</v>
       </c>
       <c r="F222" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G222" t="s">
         <v>159</v>
@@ -32643,7 +32643,7 @@
         <v>148</v>
       </c>
       <c r="F223" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G223" t="s">
         <v>159</v>
@@ -32787,7 +32787,7 @@
         <v>133</v>
       </c>
       <c r="F224" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G224" t="s">
         <v>159</v>
@@ -32919,19 +32919,19 @@
         <v>59</v>
       </c>
       <c r="B225" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C225" s="1">
         <v>5707</v>
       </c>
       <c r="D225" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E225" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F225" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G225" t="s">
         <v>159</v>
@@ -33063,16 +33063,16 @@
         <v>59</v>
       </c>
       <c r="B226" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C226" s="1">
         <v>3345</v>
       </c>
       <c r="D226" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E226" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F226" t="s">
         <v>157</v>
@@ -33207,19 +33207,19 @@
         <v>60</v>
       </c>
       <c r="B227" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C227" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D227" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E227" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F227" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G227" t="s">
         <v>159</v>
@@ -33247,16 +33247,16 @@
         <v>0</v>
       </c>
       <c r="P227" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q227" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R227" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S227" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T227" s="1">
         <v>0</v>
@@ -33310,7 +33310,7 @@
         <v>0</v>
       </c>
       <c r="AK227" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL227" s="1">
         <v>0</v>
@@ -33351,19 +33351,19 @@
         <v>60</v>
       </c>
       <c r="B228" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C228" s="1">
         <v>88890</v>
       </c>
       <c r="D228" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E228" t="s">
         <v>135</v>
       </c>
       <c r="F228" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G228" t="s">
         <v>159</v>
@@ -33495,19 +33495,19 @@
         <v>60</v>
       </c>
       <c r="B229" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C229" s="1">
-        <v>62300</v>
+        <v>5707</v>
       </c>
       <c r="D229" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E229" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F229" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G229" t="s">
         <v>159</v>
@@ -33519,10 +33519,10 @@
         <v>1896</v>
       </c>
       <c r="J229" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K229" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L229" s="1"/>
       <c r="M229" s="1">
@@ -33541,10 +33541,10 @@
         <v>0</v>
       </c>
       <c r="R229" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S229" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T229" s="1">
         <v>0</v>
@@ -33598,7 +33598,7 @@
         <v>0</v>
       </c>
       <c r="AK229" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL229" s="1">
         <v>0</v>
@@ -33642,7 +33642,7 @@
         <v>74</v>
       </c>
       <c r="C230" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D230" t="s">
         <v>110</v>
@@ -33651,7 +33651,7 @@
         <v>138</v>
       </c>
       <c r="F230" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G230" t="s">
         <v>159</v>
@@ -33663,10 +33663,10 @@
         <v>1896</v>
       </c>
       <c r="J230" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K230" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L230" s="1"/>
       <c r="M230" s="1">
@@ -33679,10 +33679,10 @@
         <v>0</v>
       </c>
       <c r="P230" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q230" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R230" s="1">
         <v>0</v>
@@ -33783,19 +33783,19 @@
         <v>61</v>
       </c>
       <c r="B231" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C231" s="1">
         <v>3345</v>
       </c>
       <c r="D231" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E231" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F231" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G231" t="s">
         <v>159</v>
@@ -33927,19 +33927,19 @@
         <v>61</v>
       </c>
       <c r="B232" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C232" s="1">
         <v>88890</v>
       </c>
       <c r="D232" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E232" t="s">
         <v>135</v>
       </c>
       <c r="F232" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G232" t="s">
         <v>159</v>
@@ -34071,19 +34071,19 @@
         <v>61</v>
       </c>
       <c r="B233" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C233" s="1">
         <v>5707</v>
       </c>
       <c r="D233" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E233" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F233" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G233" t="s">
         <v>159</v>
@@ -34215,19 +34215,19 @@
         <v>62</v>
       </c>
       <c r="B234" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C234" s="1">
-        <v>2337</v>
+        <v>5707</v>
       </c>
       <c r="D234" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="E234" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F234" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G234" t="s">
         <v>159</v>
@@ -34239,10 +34239,10 @@
         <v>1902</v>
       </c>
       <c r="J234" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K234" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L234" s="1"/>
       <c r="M234" s="1">
@@ -34261,10 +34261,10 @@
         <v>0</v>
       </c>
       <c r="R234" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S234" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T234" s="1">
         <v>0</v>
@@ -34333,7 +34333,7 @@
         <v>0</v>
       </c>
       <c r="AP234" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ234" s="1">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>62</v>
       </c>
       <c r="B235" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C235" s="1">
-        <v>88890</v>
+        <v>2337</v>
       </c>
       <c r="D235" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="E235" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="F235" t="s">
         <v>157</v>
@@ -34477,7 +34477,7 @@
         <v>0</v>
       </c>
       <c r="AP235" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ235" s="1">
         <v>0</v>
@@ -34486,7 +34486,7 @@
         <v>0</v>
       </c>
       <c r="AS235" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT235" s="1">
         <v>0</v>
@@ -34503,19 +34503,19 @@
         <v>62</v>
       </c>
       <c r="B236" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C236" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D236" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E236" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F236" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G236" t="s">
         <v>159</v>
@@ -34527,10 +34527,10 @@
         <v>1902</v>
       </c>
       <c r="J236" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K236" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L236" s="1"/>
       <c r="M236" s="1">
@@ -34549,10 +34549,10 @@
         <v>0</v>
       </c>
       <c r="R236" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S236" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T236" s="1">
         <v>0</v>
@@ -34630,7 +34630,7 @@
         <v>0</v>
       </c>
       <c r="AS236" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT236" s="1">
         <v>0</v>
@@ -34647,16 +34647,16 @@
         <v>62</v>
       </c>
       <c r="B237" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C237" s="1">
         <v>3345</v>
       </c>
       <c r="D237" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E237" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F237" t="s">
         <v>157</v>
